--- a/jumby_baseline/data/JBB_seagrass.xlsx
+++ b/jumby_baseline/data/JBB_seagrass.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="sites" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="quadrants" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="organisms" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="inverts" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="lookups" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="174">
   <si>
     <t>date</t>
   </si>
@@ -211,40 +211,46 @@
     <t>Organism</t>
   </si>
   <si>
+    <t>Phase</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
-    <t>Cushion star</t>
+    <t>cushion star</t>
   </si>
   <si>
-    <t>Cassiopia</t>
+    <t>cassiopia</t>
   </si>
   <si>
-    <t>Fan worm</t>
+    <t>fan worm</t>
   </si>
   <si>
-    <t>Conch (adult)</t>
+    <t>queen conch</t>
   </si>
   <si>
-    <t>Corkscrew anemone</t>
+    <t>adult</t>
   </si>
   <si>
-    <t>Giant anemone</t>
+    <t>corkscrew anemone</t>
   </si>
   <si>
-    <t>Brittle star</t>
+    <t>giant anemone</t>
   </si>
   <si>
-    <t>Conch (juvenile)</t>
+    <t>brittle star</t>
   </si>
   <si>
-    <t>Pen shell</t>
+    <t>juvenile</t>
   </si>
   <si>
-    <t>Sea egg</t>
+    <t>pen shell</t>
   </si>
   <si>
-    <t>Donkey dung sea cucumber</t>
+    <t>sea egg</t>
+  </si>
+  <si>
+    <t>donkey dung sea cucumber</t>
   </si>
   <si>
     <t>Code</t>
@@ -55238,10 +55244,12 @@
       <c r="F1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="32"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -55260,6 +55268,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="26">
@@ -55275,9 +55284,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="24">
+        <v>67</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55295,9 +55305,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="24">
+        <v>68</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55315,9 +55326,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="24">
+        <v>69</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55335,9 +55347,12 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="24">
+        <v>70</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55355,9 +55370,10 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="24">
+        <v>67</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24">
         <v>3.0</v>
       </c>
     </row>
@@ -55375,9 +55391,10 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="24">
+        <v>72</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55395,9 +55412,10 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="24">
+        <v>73</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55415,9 +55433,10 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="24">
+        <v>74</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24">
         <v>2.0</v>
       </c>
     </row>
@@ -55435,9 +55454,10 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="24">
+        <v>67</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55455,9 +55475,12 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="24">
+        <v>70</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55475,9 +55498,12 @@
         <v>2.0</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="24">
+        <v>70</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55494,10 +55520,13 @@
       <c r="D13" s="24">
         <v>2.0</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55515,9 +55544,10 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="24">
+        <v>76</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55535,9 +55565,10 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="24">
+        <v>77</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55555,9 +55586,10 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="24">
+        <v>68</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55575,9 +55607,10 @@
         <v>2.0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="24">
+        <v>78</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55602,13 +55635,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -55636,475 +55669,475 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B7" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B30" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>148</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>161</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46">

--- a/jumby_baseline/data/JBB_seagrass.xlsx
+++ b/jumby_baseline/data/JBB_seagrass.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="sites" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="quadrants" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="quadrats" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="inverts" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="lookups" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="175">
   <si>
     <t>date</t>
   </si>
@@ -112,7 +112,7 @@
     <t>transect</t>
   </si>
   <si>
-    <t>quadrant</t>
+    <t>quadrat</t>
   </si>
   <si>
     <t>code</t>
@@ -220,7 +220,7 @@
     <t>cushion star</t>
   </si>
   <si>
-    <t>cassiopia</t>
+    <t>cassiopea</t>
   </si>
   <si>
     <t>fan worm</t>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>sea egg</t>
+  </si>
+  <si>
+    <t>cassiopia</t>
   </si>
   <si>
     <t>donkey dung sea cucumber</t>
@@ -638,7 +641,7 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -656,7 +659,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -1117,7 +1120,7 @@
       <c r="J5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1146,7 +1149,7 @@
       <c r="J6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="5">
@@ -1292,7 +1295,7 @@
       <c r="J10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="5">
@@ -1325,14 +1328,14 @@
       <c r="J11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="5">
         <v>44448.0</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8">
@@ -1356,7 +1359,7 @@
       <c r="J12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="25"/>
@@ -1368,35 +1371,35 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18">
       <c r="A18" s="26"/>
@@ -1408,14 +1411,14 @@
       <c r="H18" s="27"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" s="26"/>
@@ -1427,7 +1430,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="26"/>
@@ -1439,3931 +1442,3931 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22">
       <c r="B22" s="15"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23">
       <c r="B23" s="15"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24">
       <c r="B24" s="15"/>
-      <c r="K24" s="10"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25">
       <c r="B25" s="15"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26">
       <c r="B26" s="15"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27">
       <c r="B27" s="15"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28">
       <c r="B28" s="15"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29">
       <c r="B29" s="15"/>
-      <c r="K29" s="10"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30">
       <c r="B30" s="15"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31">
       <c r="B31" s="15"/>
-      <c r="K31" s="10"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32">
       <c r="B32" s="15"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33">
       <c r="B33" s="15"/>
-      <c r="K33" s="10"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34">
       <c r="B34" s="15"/>
-      <c r="K34" s="10"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35">
       <c r="B35" s="15"/>
-      <c r="K35" s="10"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36">
       <c r="B36" s="15"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37">
       <c r="B37" s="15"/>
-      <c r="K37" s="10"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38">
       <c r="B38" s="15"/>
-      <c r="K38" s="10"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39">
       <c r="B39" s="15"/>
-      <c r="K39" s="10"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40">
       <c r="B40" s="15"/>
-      <c r="K40" s="10"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41">
       <c r="B41" s="15"/>
-      <c r="K41" s="10"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42">
       <c r="B42" s="15"/>
-      <c r="K42" s="10"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43">
       <c r="B43" s="15"/>
-      <c r="K43" s="10"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44">
       <c r="B44" s="15"/>
-      <c r="K44" s="10"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45">
       <c r="B45" s="15"/>
-      <c r="K45" s="10"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46">
       <c r="B46" s="15"/>
-      <c r="K46" s="10"/>
+      <c r="K46" s="16"/>
     </row>
     <row r="47">
       <c r="B47" s="15"/>
-      <c r="K47" s="10"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48">
       <c r="B48" s="15"/>
-      <c r="K48" s="10"/>
+      <c r="K48" s="16"/>
     </row>
     <row r="49">
       <c r="B49" s="15"/>
-      <c r="K49" s="10"/>
+      <c r="K49" s="16"/>
     </row>
     <row r="50">
       <c r="B50" s="15"/>
-      <c r="K50" s="10"/>
+      <c r="K50" s="16"/>
     </row>
     <row r="51">
       <c r="B51" s="15"/>
-      <c r="K51" s="10"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52">
       <c r="B52" s="15"/>
-      <c r="K52" s="10"/>
+      <c r="K52" s="16"/>
     </row>
     <row r="53">
       <c r="B53" s="15"/>
-      <c r="K53" s="10"/>
+      <c r="K53" s="16"/>
     </row>
     <row r="54">
       <c r="B54" s="15"/>
-      <c r="K54" s="10"/>
+      <c r="K54" s="16"/>
     </row>
     <row r="55">
       <c r="B55" s="15"/>
-      <c r="K55" s="10"/>
+      <c r="K55" s="16"/>
     </row>
     <row r="56">
       <c r="B56" s="15"/>
-      <c r="K56" s="10"/>
+      <c r="K56" s="16"/>
     </row>
     <row r="57">
       <c r="B57" s="15"/>
-      <c r="K57" s="10"/>
+      <c r="K57" s="16"/>
     </row>
     <row r="58">
       <c r="B58" s="15"/>
-      <c r="K58" s="10"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59">
       <c r="B59" s="15"/>
-      <c r="K59" s="10"/>
+      <c r="K59" s="16"/>
     </row>
     <row r="60">
       <c r="B60" s="15"/>
-      <c r="K60" s="10"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61">
       <c r="B61" s="15"/>
-      <c r="K61" s="10"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62">
       <c r="B62" s="15"/>
-      <c r="K62" s="10"/>
+      <c r="K62" s="16"/>
     </row>
     <row r="63">
       <c r="B63" s="15"/>
-      <c r="K63" s="10"/>
+      <c r="K63" s="16"/>
     </row>
     <row r="64">
       <c r="B64" s="15"/>
-      <c r="K64" s="10"/>
+      <c r="K64" s="16"/>
     </row>
     <row r="65">
       <c r="B65" s="15"/>
-      <c r="K65" s="10"/>
+      <c r="K65" s="16"/>
     </row>
     <row r="66">
       <c r="B66" s="15"/>
-      <c r="K66" s="10"/>
+      <c r="K66" s="16"/>
     </row>
     <row r="67">
       <c r="B67" s="15"/>
-      <c r="K67" s="10"/>
+      <c r="K67" s="16"/>
     </row>
     <row r="68">
       <c r="B68" s="15"/>
-      <c r="K68" s="10"/>
+      <c r="K68" s="16"/>
     </row>
     <row r="69">
       <c r="B69" s="15"/>
-      <c r="K69" s="10"/>
+      <c r="K69" s="16"/>
     </row>
     <row r="70">
       <c r="B70" s="15"/>
-      <c r="K70" s="10"/>
+      <c r="K70" s="16"/>
     </row>
     <row r="71">
       <c r="B71" s="15"/>
-      <c r="K71" s="10"/>
+      <c r="K71" s="16"/>
     </row>
     <row r="72">
       <c r="B72" s="15"/>
-      <c r="K72" s="10"/>
+      <c r="K72" s="16"/>
     </row>
     <row r="73">
       <c r="B73" s="15"/>
-      <c r="K73" s="10"/>
+      <c r="K73" s="16"/>
     </row>
     <row r="74">
       <c r="B74" s="15"/>
-      <c r="K74" s="10"/>
+      <c r="K74" s="16"/>
     </row>
     <row r="75">
       <c r="B75" s="15"/>
-      <c r="K75" s="10"/>
+      <c r="K75" s="16"/>
     </row>
     <row r="76">
       <c r="B76" s="15"/>
-      <c r="K76" s="10"/>
+      <c r="K76" s="16"/>
     </row>
     <row r="77">
       <c r="B77" s="15"/>
-      <c r="K77" s="10"/>
+      <c r="K77" s="16"/>
     </row>
     <row r="78">
       <c r="B78" s="15"/>
-      <c r="K78" s="10"/>
+      <c r="K78" s="16"/>
     </row>
     <row r="79">
       <c r="B79" s="15"/>
-      <c r="K79" s="10"/>
+      <c r="K79" s="16"/>
     </row>
     <row r="80">
       <c r="B80" s="15"/>
-      <c r="K80" s="10"/>
+      <c r="K80" s="16"/>
     </row>
     <row r="81">
       <c r="B81" s="15"/>
-      <c r="K81" s="10"/>
+      <c r="K81" s="16"/>
     </row>
     <row r="82">
       <c r="B82" s="15"/>
-      <c r="K82" s="10"/>
+      <c r="K82" s="16"/>
     </row>
     <row r="83">
       <c r="B83" s="15"/>
-      <c r="K83" s="10"/>
+      <c r="K83" s="16"/>
     </row>
     <row r="84">
       <c r="B84" s="15"/>
-      <c r="K84" s="10"/>
+      <c r="K84" s="16"/>
     </row>
     <row r="85">
       <c r="B85" s="15"/>
-      <c r="K85" s="10"/>
+      <c r="K85" s="16"/>
     </row>
     <row r="86">
       <c r="B86" s="15"/>
-      <c r="K86" s="10"/>
+      <c r="K86" s="16"/>
     </row>
     <row r="87">
       <c r="B87" s="15"/>
-      <c r="K87" s="10"/>
+      <c r="K87" s="16"/>
     </row>
     <row r="88">
       <c r="B88" s="15"/>
-      <c r="K88" s="10"/>
+      <c r="K88" s="16"/>
     </row>
     <row r="89">
       <c r="B89" s="15"/>
-      <c r="K89" s="10"/>
+      <c r="K89" s="16"/>
     </row>
     <row r="90">
       <c r="B90" s="15"/>
-      <c r="K90" s="10"/>
+      <c r="K90" s="16"/>
     </row>
     <row r="91">
       <c r="B91" s="15"/>
-      <c r="K91" s="10"/>
+      <c r="K91" s="16"/>
     </row>
     <row r="92">
       <c r="B92" s="15"/>
-      <c r="K92" s="10"/>
+      <c r="K92" s="16"/>
     </row>
     <row r="93">
       <c r="B93" s="15"/>
-      <c r="K93" s="10"/>
+      <c r="K93" s="16"/>
     </row>
     <row r="94">
       <c r="B94" s="15"/>
-      <c r="K94" s="10"/>
+      <c r="K94" s="16"/>
     </row>
     <row r="95">
       <c r="B95" s="15"/>
-      <c r="K95" s="10"/>
+      <c r="K95" s="16"/>
     </row>
     <row r="96">
       <c r="B96" s="15"/>
-      <c r="K96" s="10"/>
+      <c r="K96" s="16"/>
     </row>
     <row r="97">
       <c r="B97" s="15"/>
-      <c r="K97" s="10"/>
+      <c r="K97" s="16"/>
     </row>
     <row r="98">
       <c r="B98" s="15"/>
-      <c r="K98" s="10"/>
+      <c r="K98" s="16"/>
     </row>
     <row r="99">
       <c r="B99" s="15"/>
-      <c r="K99" s="10"/>
+      <c r="K99" s="16"/>
     </row>
     <row r="100">
       <c r="B100" s="15"/>
-      <c r="K100" s="10"/>
+      <c r="K100" s="16"/>
     </row>
     <row r="101">
       <c r="B101" s="15"/>
-      <c r="K101" s="10"/>
+      <c r="K101" s="16"/>
     </row>
     <row r="102">
       <c r="B102" s="15"/>
-      <c r="K102" s="10"/>
+      <c r="K102" s="16"/>
     </row>
     <row r="103">
       <c r="B103" s="15"/>
-      <c r="K103" s="10"/>
+      <c r="K103" s="16"/>
     </row>
     <row r="104">
       <c r="B104" s="15"/>
-      <c r="K104" s="10"/>
+      <c r="K104" s="16"/>
     </row>
     <row r="105">
       <c r="B105" s="15"/>
-      <c r="K105" s="10"/>
+      <c r="K105" s="16"/>
     </row>
     <row r="106">
       <c r="B106" s="15"/>
-      <c r="K106" s="10"/>
+      <c r="K106" s="16"/>
     </row>
     <row r="107">
       <c r="B107" s="15"/>
-      <c r="K107" s="10"/>
+      <c r="K107" s="16"/>
     </row>
     <row r="108">
       <c r="B108" s="15"/>
-      <c r="K108" s="10"/>
+      <c r="K108" s="16"/>
     </row>
     <row r="109">
       <c r="B109" s="15"/>
-      <c r="K109" s="10"/>
+      <c r="K109" s="16"/>
     </row>
     <row r="110">
       <c r="B110" s="15"/>
-      <c r="K110" s="10"/>
+      <c r="K110" s="16"/>
     </row>
     <row r="111">
       <c r="B111" s="15"/>
-      <c r="K111" s="10"/>
+      <c r="K111" s="16"/>
     </row>
     <row r="112">
       <c r="B112" s="15"/>
-      <c r="K112" s="10"/>
+      <c r="K112" s="16"/>
     </row>
     <row r="113">
       <c r="B113" s="15"/>
-      <c r="K113" s="10"/>
+      <c r="K113" s="16"/>
     </row>
     <row r="114">
       <c r="B114" s="15"/>
-      <c r="K114" s="10"/>
+      <c r="K114" s="16"/>
     </row>
     <row r="115">
       <c r="B115" s="15"/>
-      <c r="K115" s="10"/>
+      <c r="K115" s="16"/>
     </row>
     <row r="116">
       <c r="B116" s="15"/>
-      <c r="K116" s="10"/>
+      <c r="K116" s="16"/>
     </row>
     <row r="117">
       <c r="B117" s="15"/>
-      <c r="K117" s="10"/>
+      <c r="K117" s="16"/>
     </row>
     <row r="118">
       <c r="B118" s="15"/>
-      <c r="K118" s="10"/>
+      <c r="K118" s="16"/>
     </row>
     <row r="119">
       <c r="B119" s="15"/>
-      <c r="K119" s="10"/>
+      <c r="K119" s="16"/>
     </row>
     <row r="120">
       <c r="B120" s="15"/>
-      <c r="K120" s="10"/>
+      <c r="K120" s="16"/>
     </row>
     <row r="121">
       <c r="B121" s="15"/>
-      <c r="K121" s="10"/>
+      <c r="K121" s="16"/>
     </row>
     <row r="122">
       <c r="B122" s="15"/>
-      <c r="K122" s="10"/>
+      <c r="K122" s="16"/>
     </row>
     <row r="123">
       <c r="B123" s="15"/>
-      <c r="K123" s="10"/>
+      <c r="K123" s="16"/>
     </row>
     <row r="124">
       <c r="B124" s="15"/>
-      <c r="K124" s="10"/>
+      <c r="K124" s="16"/>
     </row>
     <row r="125">
       <c r="B125" s="15"/>
-      <c r="K125" s="10"/>
+      <c r="K125" s="16"/>
     </row>
     <row r="126">
       <c r="B126" s="15"/>
-      <c r="K126" s="10"/>
+      <c r="K126" s="16"/>
     </row>
     <row r="127">
       <c r="B127" s="15"/>
-      <c r="K127" s="10"/>
+      <c r="K127" s="16"/>
     </row>
     <row r="128">
       <c r="B128" s="15"/>
-      <c r="K128" s="10"/>
+      <c r="K128" s="16"/>
     </row>
     <row r="129">
       <c r="B129" s="15"/>
-      <c r="K129" s="10"/>
+      <c r="K129" s="16"/>
     </row>
     <row r="130">
       <c r="B130" s="15"/>
-      <c r="K130" s="10"/>
+      <c r="K130" s="16"/>
     </row>
     <row r="131">
       <c r="B131" s="15"/>
-      <c r="K131" s="10"/>
+      <c r="K131" s="16"/>
     </row>
     <row r="132">
       <c r="B132" s="15"/>
-      <c r="K132" s="10"/>
+      <c r="K132" s="16"/>
     </row>
     <row r="133">
       <c r="B133" s="15"/>
-      <c r="K133" s="10"/>
+      <c r="K133" s="16"/>
     </row>
     <row r="134">
       <c r="B134" s="15"/>
-      <c r="K134" s="10"/>
+      <c r="K134" s="16"/>
     </row>
     <row r="135">
       <c r="B135" s="15"/>
-      <c r="K135" s="10"/>
+      <c r="K135" s="16"/>
     </row>
     <row r="136">
       <c r="B136" s="15"/>
-      <c r="K136" s="10"/>
+      <c r="K136" s="16"/>
     </row>
     <row r="137">
       <c r="B137" s="15"/>
-      <c r="K137" s="10"/>
+      <c r="K137" s="16"/>
     </row>
     <row r="138">
       <c r="B138" s="15"/>
-      <c r="K138" s="10"/>
+      <c r="K138" s="16"/>
     </row>
     <row r="139">
       <c r="B139" s="15"/>
-      <c r="K139" s="10"/>
+      <c r="K139" s="16"/>
     </row>
     <row r="140">
       <c r="B140" s="15"/>
-      <c r="K140" s="10"/>
+      <c r="K140" s="16"/>
     </row>
     <row r="141">
       <c r="B141" s="15"/>
-      <c r="K141" s="10"/>
+      <c r="K141" s="16"/>
     </row>
     <row r="142">
       <c r="B142" s="15"/>
-      <c r="K142" s="10"/>
+      <c r="K142" s="16"/>
     </row>
     <row r="143">
       <c r="B143" s="15"/>
-      <c r="K143" s="10"/>
+      <c r="K143" s="16"/>
     </row>
     <row r="144">
       <c r="B144" s="15"/>
-      <c r="K144" s="10"/>
+      <c r="K144" s="16"/>
     </row>
     <row r="145">
       <c r="B145" s="15"/>
-      <c r="K145" s="10"/>
+      <c r="K145" s="16"/>
     </row>
     <row r="146">
       <c r="B146" s="15"/>
-      <c r="K146" s="10"/>
+      <c r="K146" s="16"/>
     </row>
     <row r="147">
       <c r="B147" s="15"/>
-      <c r="K147" s="10"/>
+      <c r="K147" s="16"/>
     </row>
     <row r="148">
       <c r="B148" s="15"/>
-      <c r="K148" s="10"/>
+      <c r="K148" s="16"/>
     </row>
     <row r="149">
       <c r="B149" s="15"/>
-      <c r="K149" s="10"/>
+      <c r="K149" s="16"/>
     </row>
     <row r="150">
       <c r="B150" s="15"/>
-      <c r="K150" s="10"/>
+      <c r="K150" s="16"/>
     </row>
     <row r="151">
       <c r="B151" s="15"/>
-      <c r="K151" s="10"/>
+      <c r="K151" s="16"/>
     </row>
     <row r="152">
       <c r="B152" s="15"/>
-      <c r="K152" s="10"/>
+      <c r="K152" s="16"/>
     </row>
     <row r="153">
       <c r="B153" s="15"/>
-      <c r="K153" s="10"/>
+      <c r="K153" s="16"/>
     </row>
     <row r="154">
       <c r="B154" s="15"/>
-      <c r="K154" s="10"/>
+      <c r="K154" s="16"/>
     </row>
     <row r="155">
       <c r="B155" s="15"/>
-      <c r="K155" s="10"/>
+      <c r="K155" s="16"/>
     </row>
     <row r="156">
       <c r="B156" s="15"/>
-      <c r="K156" s="10"/>
+      <c r="K156" s="16"/>
     </row>
     <row r="157">
       <c r="B157" s="15"/>
-      <c r="K157" s="10"/>
+      <c r="K157" s="16"/>
     </row>
     <row r="158">
       <c r="B158" s="15"/>
-      <c r="K158" s="10"/>
+      <c r="K158" s="16"/>
     </row>
     <row r="159">
       <c r="B159" s="15"/>
-      <c r="K159" s="10"/>
+      <c r="K159" s="16"/>
     </row>
     <row r="160">
       <c r="B160" s="15"/>
-      <c r="K160" s="10"/>
+      <c r="K160" s="16"/>
     </row>
     <row r="161">
       <c r="B161" s="15"/>
-      <c r="K161" s="10"/>
+      <c r="K161" s="16"/>
     </row>
     <row r="162">
       <c r="B162" s="15"/>
-      <c r="K162" s="10"/>
+      <c r="K162" s="16"/>
     </row>
     <row r="163">
       <c r="B163" s="15"/>
-      <c r="K163" s="10"/>
+      <c r="K163" s="16"/>
     </row>
     <row r="164">
       <c r="B164" s="15"/>
-      <c r="K164" s="10"/>
+      <c r="K164" s="16"/>
     </row>
     <row r="165">
       <c r="B165" s="15"/>
-      <c r="K165" s="10"/>
+      <c r="K165" s="16"/>
     </row>
     <row r="166">
       <c r="B166" s="15"/>
-      <c r="K166" s="10"/>
+      <c r="K166" s="16"/>
     </row>
     <row r="167">
       <c r="B167" s="15"/>
-      <c r="K167" s="10"/>
+      <c r="K167" s="16"/>
     </row>
     <row r="168">
       <c r="B168" s="15"/>
-      <c r="K168" s="10"/>
+      <c r="K168" s="16"/>
     </row>
     <row r="169">
       <c r="B169" s="15"/>
-      <c r="K169" s="10"/>
+      <c r="K169" s="16"/>
     </row>
     <row r="170">
       <c r="B170" s="15"/>
-      <c r="K170" s="10"/>
+      <c r="K170" s="16"/>
     </row>
     <row r="171">
       <c r="B171" s="15"/>
-      <c r="K171" s="10"/>
+      <c r="K171" s="16"/>
     </row>
     <row r="172">
       <c r="B172" s="15"/>
-      <c r="K172" s="10"/>
+      <c r="K172" s="16"/>
     </row>
     <row r="173">
       <c r="B173" s="15"/>
-      <c r="K173" s="10"/>
+      <c r="K173" s="16"/>
     </row>
     <row r="174">
       <c r="B174" s="15"/>
-      <c r="K174" s="10"/>
+      <c r="K174" s="16"/>
     </row>
     <row r="175">
       <c r="B175" s="15"/>
-      <c r="K175" s="10"/>
+      <c r="K175" s="16"/>
     </row>
     <row r="176">
       <c r="B176" s="15"/>
-      <c r="K176" s="10"/>
+      <c r="K176" s="16"/>
     </row>
     <row r="177">
       <c r="B177" s="15"/>
-      <c r="K177" s="10"/>
+      <c r="K177" s="16"/>
     </row>
     <row r="178">
       <c r="B178" s="15"/>
-      <c r="K178" s="10"/>
+      <c r="K178" s="16"/>
     </row>
     <row r="179">
       <c r="B179" s="15"/>
-      <c r="K179" s="10"/>
+      <c r="K179" s="16"/>
     </row>
     <row r="180">
       <c r="B180" s="15"/>
-      <c r="K180" s="10"/>
+      <c r="K180" s="16"/>
     </row>
     <row r="181">
       <c r="B181" s="15"/>
-      <c r="K181" s="10"/>
+      <c r="K181" s="16"/>
     </row>
     <row r="182">
       <c r="B182" s="15"/>
-      <c r="K182" s="10"/>
+      <c r="K182" s="16"/>
     </row>
     <row r="183">
       <c r="B183" s="15"/>
-      <c r="K183" s="10"/>
+      <c r="K183" s="16"/>
     </row>
     <row r="184">
       <c r="B184" s="15"/>
-      <c r="K184" s="10"/>
+      <c r="K184" s="16"/>
     </row>
     <row r="185">
       <c r="B185" s="15"/>
-      <c r="K185" s="10"/>
+      <c r="K185" s="16"/>
     </row>
     <row r="186">
       <c r="B186" s="15"/>
-      <c r="K186" s="10"/>
+      <c r="K186" s="16"/>
     </row>
     <row r="187">
       <c r="B187" s="15"/>
-      <c r="K187" s="10"/>
+      <c r="K187" s="16"/>
     </row>
     <row r="188">
       <c r="B188" s="15"/>
-      <c r="K188" s="10"/>
+      <c r="K188" s="16"/>
     </row>
     <row r="189">
       <c r="B189" s="15"/>
-      <c r="K189" s="10"/>
+      <c r="K189" s="16"/>
     </row>
     <row r="190">
       <c r="B190" s="15"/>
-      <c r="K190" s="10"/>
+      <c r="K190" s="16"/>
     </row>
     <row r="191">
       <c r="B191" s="15"/>
-      <c r="K191" s="10"/>
+      <c r="K191" s="16"/>
     </row>
     <row r="192">
       <c r="B192" s="15"/>
-      <c r="K192" s="10"/>
+      <c r="K192" s="16"/>
     </row>
     <row r="193">
       <c r="B193" s="15"/>
-      <c r="K193" s="10"/>
+      <c r="K193" s="16"/>
     </row>
     <row r="194">
       <c r="B194" s="15"/>
-      <c r="K194" s="10"/>
+      <c r="K194" s="16"/>
     </row>
     <row r="195">
       <c r="B195" s="15"/>
-      <c r="K195" s="10"/>
+      <c r="K195" s="16"/>
     </row>
     <row r="196">
       <c r="B196" s="15"/>
-      <c r="K196" s="10"/>
+      <c r="K196" s="16"/>
     </row>
     <row r="197">
       <c r="B197" s="15"/>
-      <c r="K197" s="10"/>
+      <c r="K197" s="16"/>
     </row>
     <row r="198">
       <c r="B198" s="15"/>
-      <c r="K198" s="10"/>
+      <c r="K198" s="16"/>
     </row>
     <row r="199">
       <c r="B199" s="15"/>
-      <c r="K199" s="10"/>
+      <c r="K199" s="16"/>
     </row>
     <row r="200">
       <c r="B200" s="15"/>
-      <c r="K200" s="10"/>
+      <c r="K200" s="16"/>
     </row>
     <row r="201">
       <c r="B201" s="15"/>
-      <c r="K201" s="10"/>
+      <c r="K201" s="16"/>
     </row>
     <row r="202">
       <c r="B202" s="15"/>
-      <c r="K202" s="10"/>
+      <c r="K202" s="16"/>
     </row>
     <row r="203">
       <c r="B203" s="15"/>
-      <c r="K203" s="10"/>
+      <c r="K203" s="16"/>
     </row>
     <row r="204">
       <c r="B204" s="15"/>
-      <c r="K204" s="10"/>
+      <c r="K204" s="16"/>
     </row>
     <row r="205">
       <c r="B205" s="15"/>
-      <c r="K205" s="10"/>
+      <c r="K205" s="16"/>
     </row>
     <row r="206">
       <c r="B206" s="15"/>
-      <c r="K206" s="10"/>
+      <c r="K206" s="16"/>
     </row>
     <row r="207">
       <c r="B207" s="15"/>
-      <c r="K207" s="10"/>
+      <c r="K207" s="16"/>
     </row>
     <row r="208">
       <c r="B208" s="15"/>
-      <c r="K208" s="10"/>
+      <c r="K208" s="16"/>
     </row>
     <row r="209">
       <c r="B209" s="15"/>
-      <c r="K209" s="10"/>
+      <c r="K209" s="16"/>
     </row>
     <row r="210">
       <c r="B210" s="15"/>
-      <c r="K210" s="10"/>
+      <c r="K210" s="16"/>
     </row>
     <row r="211">
       <c r="B211" s="15"/>
-      <c r="K211" s="10"/>
+      <c r="K211" s="16"/>
     </row>
     <row r="212">
       <c r="B212" s="15"/>
-      <c r="K212" s="10"/>
+      <c r="K212" s="16"/>
     </row>
     <row r="213">
       <c r="B213" s="15"/>
-      <c r="K213" s="10"/>
+      <c r="K213" s="16"/>
     </row>
     <row r="214">
       <c r="B214" s="15"/>
-      <c r="K214" s="10"/>
+      <c r="K214" s="16"/>
     </row>
     <row r="215">
       <c r="B215" s="15"/>
-      <c r="K215" s="10"/>
+      <c r="K215" s="16"/>
     </row>
     <row r="216">
       <c r="B216" s="15"/>
-      <c r="K216" s="10"/>
+      <c r="K216" s="16"/>
     </row>
     <row r="217">
       <c r="B217" s="15"/>
-      <c r="K217" s="10"/>
+      <c r="K217" s="16"/>
     </row>
     <row r="218">
       <c r="B218" s="15"/>
-      <c r="K218" s="10"/>
+      <c r="K218" s="16"/>
     </row>
     <row r="219">
       <c r="B219" s="15"/>
-      <c r="K219" s="10"/>
+      <c r="K219" s="16"/>
     </row>
     <row r="220">
       <c r="B220" s="15"/>
-      <c r="K220" s="10"/>
+      <c r="K220" s="16"/>
     </row>
     <row r="221">
       <c r="B221" s="15"/>
-      <c r="K221" s="10"/>
+      <c r="K221" s="16"/>
     </row>
     <row r="222">
       <c r="B222" s="15"/>
-      <c r="K222" s="10"/>
+      <c r="K222" s="16"/>
     </row>
     <row r="223">
       <c r="B223" s="15"/>
-      <c r="K223" s="10"/>
+      <c r="K223" s="16"/>
     </row>
     <row r="224">
       <c r="B224" s="15"/>
-      <c r="K224" s="10"/>
+      <c r="K224" s="16"/>
     </row>
     <row r="225">
       <c r="B225" s="15"/>
-      <c r="K225" s="10"/>
+      <c r="K225" s="16"/>
     </row>
     <row r="226">
       <c r="B226" s="15"/>
-      <c r="K226" s="10"/>
+      <c r="K226" s="16"/>
     </row>
     <row r="227">
       <c r="B227" s="15"/>
-      <c r="K227" s="10"/>
+      <c r="K227" s="16"/>
     </row>
     <row r="228">
       <c r="B228" s="15"/>
-      <c r="K228" s="10"/>
+      <c r="K228" s="16"/>
     </row>
     <row r="229">
       <c r="B229" s="15"/>
-      <c r="K229" s="10"/>
+      <c r="K229" s="16"/>
     </row>
     <row r="230">
       <c r="B230" s="15"/>
-      <c r="K230" s="10"/>
+      <c r="K230" s="16"/>
     </row>
     <row r="231">
       <c r="B231" s="15"/>
-      <c r="K231" s="10"/>
+      <c r="K231" s="16"/>
     </row>
     <row r="232">
       <c r="B232" s="15"/>
-      <c r="K232" s="10"/>
+      <c r="K232" s="16"/>
     </row>
     <row r="233">
       <c r="B233" s="15"/>
-      <c r="K233" s="10"/>
+      <c r="K233" s="16"/>
     </row>
     <row r="234">
       <c r="B234" s="15"/>
-      <c r="K234" s="10"/>
+      <c r="K234" s="16"/>
     </row>
     <row r="235">
       <c r="B235" s="15"/>
-      <c r="K235" s="10"/>
+      <c r="K235" s="16"/>
     </row>
     <row r="236">
       <c r="B236" s="15"/>
-      <c r="K236" s="10"/>
+      <c r="K236" s="16"/>
     </row>
     <row r="237">
       <c r="B237" s="15"/>
-      <c r="K237" s="10"/>
+      <c r="K237" s="16"/>
     </row>
     <row r="238">
       <c r="B238" s="15"/>
-      <c r="K238" s="10"/>
+      <c r="K238" s="16"/>
     </row>
     <row r="239">
       <c r="B239" s="15"/>
-      <c r="K239" s="10"/>
+      <c r="K239" s="16"/>
     </row>
     <row r="240">
       <c r="B240" s="15"/>
-      <c r="K240" s="10"/>
+      <c r="K240" s="16"/>
     </row>
     <row r="241">
       <c r="B241" s="15"/>
-      <c r="K241" s="10"/>
+      <c r="K241" s="16"/>
     </row>
     <row r="242">
       <c r="B242" s="15"/>
-      <c r="K242" s="10"/>
+      <c r="K242" s="16"/>
     </row>
     <row r="243">
       <c r="B243" s="15"/>
-      <c r="K243" s="10"/>
+      <c r="K243" s="16"/>
     </row>
     <row r="244">
       <c r="B244" s="15"/>
-      <c r="K244" s="10"/>
+      <c r="K244" s="16"/>
     </row>
     <row r="245">
       <c r="B245" s="15"/>
-      <c r="K245" s="10"/>
+      <c r="K245" s="16"/>
     </row>
     <row r="246">
       <c r="B246" s="15"/>
-      <c r="K246" s="10"/>
+      <c r="K246" s="16"/>
     </row>
     <row r="247">
       <c r="B247" s="15"/>
-      <c r="K247" s="10"/>
+      <c r="K247" s="16"/>
     </row>
     <row r="248">
       <c r="B248" s="15"/>
-      <c r="K248" s="10"/>
+      <c r="K248" s="16"/>
     </row>
     <row r="249">
       <c r="B249" s="15"/>
-      <c r="K249" s="10"/>
+      <c r="K249" s="16"/>
     </row>
     <row r="250">
       <c r="B250" s="15"/>
-      <c r="K250" s="10"/>
+      <c r="K250" s="16"/>
     </row>
     <row r="251">
       <c r="B251" s="15"/>
-      <c r="K251" s="10"/>
+      <c r="K251" s="16"/>
     </row>
     <row r="252">
       <c r="B252" s="15"/>
-      <c r="K252" s="10"/>
+      <c r="K252" s="16"/>
     </row>
     <row r="253">
       <c r="B253" s="15"/>
-      <c r="K253" s="10"/>
+      <c r="K253" s="16"/>
     </row>
     <row r="254">
       <c r="B254" s="15"/>
-      <c r="K254" s="10"/>
+      <c r="K254" s="16"/>
     </row>
     <row r="255">
       <c r="B255" s="15"/>
-      <c r="K255" s="10"/>
+      <c r="K255" s="16"/>
     </row>
     <row r="256">
       <c r="B256" s="15"/>
-      <c r="K256" s="10"/>
+      <c r="K256" s="16"/>
     </row>
     <row r="257">
       <c r="B257" s="15"/>
-      <c r="K257" s="10"/>
+      <c r="K257" s="16"/>
     </row>
     <row r="258">
       <c r="B258" s="15"/>
-      <c r="K258" s="10"/>
+      <c r="K258" s="16"/>
     </row>
     <row r="259">
       <c r="B259" s="15"/>
-      <c r="K259" s="10"/>
+      <c r="K259" s="16"/>
     </row>
     <row r="260">
       <c r="B260" s="15"/>
-      <c r="K260" s="10"/>
+      <c r="K260" s="16"/>
     </row>
     <row r="261">
       <c r="B261" s="15"/>
-      <c r="K261" s="10"/>
+      <c r="K261" s="16"/>
     </row>
     <row r="262">
       <c r="B262" s="15"/>
-      <c r="K262" s="10"/>
+      <c r="K262" s="16"/>
     </row>
     <row r="263">
       <c r="B263" s="15"/>
-      <c r="K263" s="10"/>
+      <c r="K263" s="16"/>
     </row>
     <row r="264">
       <c r="B264" s="15"/>
-      <c r="K264" s="10"/>
+      <c r="K264" s="16"/>
     </row>
     <row r="265">
       <c r="B265" s="15"/>
-      <c r="K265" s="10"/>
+      <c r="K265" s="16"/>
     </row>
     <row r="266">
       <c r="B266" s="15"/>
-      <c r="K266" s="10"/>
+      <c r="K266" s="16"/>
     </row>
     <row r="267">
       <c r="B267" s="15"/>
-      <c r="K267" s="10"/>
+      <c r="K267" s="16"/>
     </row>
     <row r="268">
       <c r="B268" s="15"/>
-      <c r="K268" s="10"/>
+      <c r="K268" s="16"/>
     </row>
     <row r="269">
       <c r="B269" s="15"/>
-      <c r="K269" s="10"/>
+      <c r="K269" s="16"/>
     </row>
     <row r="270">
       <c r="B270" s="15"/>
-      <c r="K270" s="10"/>
+      <c r="K270" s="16"/>
     </row>
     <row r="271">
       <c r="B271" s="15"/>
-      <c r="K271" s="10"/>
+      <c r="K271" s="16"/>
     </row>
     <row r="272">
       <c r="B272" s="15"/>
-      <c r="K272" s="10"/>
+      <c r="K272" s="16"/>
     </row>
     <row r="273">
       <c r="B273" s="15"/>
-      <c r="K273" s="10"/>
+      <c r="K273" s="16"/>
     </row>
     <row r="274">
       <c r="B274" s="15"/>
-      <c r="K274" s="10"/>
+      <c r="K274" s="16"/>
     </row>
     <row r="275">
       <c r="B275" s="15"/>
-      <c r="K275" s="10"/>
+      <c r="K275" s="16"/>
     </row>
     <row r="276">
       <c r="B276" s="15"/>
-      <c r="K276" s="10"/>
+      <c r="K276" s="16"/>
     </row>
     <row r="277">
       <c r="B277" s="15"/>
-      <c r="K277" s="10"/>
+      <c r="K277" s="16"/>
     </row>
     <row r="278">
       <c r="B278" s="15"/>
-      <c r="K278" s="10"/>
+      <c r="K278" s="16"/>
     </row>
     <row r="279">
       <c r="B279" s="15"/>
-      <c r="K279" s="10"/>
+      <c r="K279" s="16"/>
     </row>
     <row r="280">
       <c r="B280" s="15"/>
-      <c r="K280" s="10"/>
+      <c r="K280" s="16"/>
     </row>
     <row r="281">
       <c r="B281" s="15"/>
-      <c r="K281" s="10"/>
+      <c r="K281" s="16"/>
     </row>
     <row r="282">
       <c r="B282" s="15"/>
-      <c r="K282" s="10"/>
+      <c r="K282" s="16"/>
     </row>
     <row r="283">
       <c r="B283" s="15"/>
-      <c r="K283" s="10"/>
+      <c r="K283" s="16"/>
     </row>
     <row r="284">
       <c r="B284" s="15"/>
-      <c r="K284" s="10"/>
+      <c r="K284" s="16"/>
     </row>
     <row r="285">
       <c r="B285" s="15"/>
-      <c r="K285" s="10"/>
+      <c r="K285" s="16"/>
     </row>
     <row r="286">
       <c r="B286" s="15"/>
-      <c r="K286" s="10"/>
+      <c r="K286" s="16"/>
     </row>
     <row r="287">
       <c r="B287" s="15"/>
-      <c r="K287" s="10"/>
+      <c r="K287" s="16"/>
     </row>
     <row r="288">
       <c r="B288" s="15"/>
-      <c r="K288" s="10"/>
+      <c r="K288" s="16"/>
     </row>
     <row r="289">
       <c r="B289" s="15"/>
-      <c r="K289" s="10"/>
+      <c r="K289" s="16"/>
     </row>
     <row r="290">
       <c r="B290" s="15"/>
-      <c r="K290" s="10"/>
+      <c r="K290" s="16"/>
     </row>
     <row r="291">
       <c r="B291" s="15"/>
-      <c r="K291" s="10"/>
+      <c r="K291" s="16"/>
     </row>
     <row r="292">
       <c r="B292" s="15"/>
-      <c r="K292" s="10"/>
+      <c r="K292" s="16"/>
     </row>
     <row r="293">
       <c r="B293" s="15"/>
-      <c r="K293" s="10"/>
+      <c r="K293" s="16"/>
     </row>
     <row r="294">
       <c r="B294" s="15"/>
-      <c r="K294" s="10"/>
+      <c r="K294" s="16"/>
     </row>
     <row r="295">
       <c r="B295" s="15"/>
-      <c r="K295" s="10"/>
+      <c r="K295" s="16"/>
     </row>
     <row r="296">
       <c r="B296" s="15"/>
-      <c r="K296" s="10"/>
+      <c r="K296" s="16"/>
     </row>
     <row r="297">
       <c r="B297" s="15"/>
-      <c r="K297" s="10"/>
+      <c r="K297" s="16"/>
     </row>
     <row r="298">
       <c r="B298" s="15"/>
-      <c r="K298" s="10"/>
+      <c r="K298" s="16"/>
     </row>
     <row r="299">
       <c r="B299" s="15"/>
-      <c r="K299" s="10"/>
+      <c r="K299" s="16"/>
     </row>
     <row r="300">
       <c r="B300" s="15"/>
-      <c r="K300" s="10"/>
+      <c r="K300" s="16"/>
     </row>
     <row r="301">
       <c r="B301" s="15"/>
-      <c r="K301" s="10"/>
+      <c r="K301" s="16"/>
     </row>
     <row r="302">
       <c r="B302" s="15"/>
-      <c r="K302" s="10"/>
+      <c r="K302" s="16"/>
     </row>
     <row r="303">
       <c r="B303" s="15"/>
-      <c r="K303" s="10"/>
+      <c r="K303" s="16"/>
     </row>
     <row r="304">
       <c r="B304" s="15"/>
-      <c r="K304" s="10"/>
+      <c r="K304" s="16"/>
     </row>
     <row r="305">
       <c r="B305" s="15"/>
-      <c r="K305" s="10"/>
+      <c r="K305" s="16"/>
     </row>
     <row r="306">
       <c r="B306" s="15"/>
-      <c r="K306" s="10"/>
+      <c r="K306" s="16"/>
     </row>
     <row r="307">
       <c r="B307" s="15"/>
-      <c r="K307" s="10"/>
+      <c r="K307" s="16"/>
     </row>
     <row r="308">
       <c r="B308" s="15"/>
-      <c r="K308" s="10"/>
+      <c r="K308" s="16"/>
     </row>
     <row r="309">
       <c r="B309" s="15"/>
-      <c r="K309" s="10"/>
+      <c r="K309" s="16"/>
     </row>
     <row r="310">
       <c r="B310" s="15"/>
-      <c r="K310" s="10"/>
+      <c r="K310" s="16"/>
     </row>
     <row r="311">
       <c r="B311" s="15"/>
-      <c r="K311" s="10"/>
+      <c r="K311" s="16"/>
     </row>
     <row r="312">
       <c r="B312" s="15"/>
-      <c r="K312" s="10"/>
+      <c r="K312" s="16"/>
     </row>
     <row r="313">
       <c r="B313" s="15"/>
-      <c r="K313" s="10"/>
+      <c r="K313" s="16"/>
     </row>
     <row r="314">
       <c r="B314" s="15"/>
-      <c r="K314" s="10"/>
+      <c r="K314" s="16"/>
     </row>
     <row r="315">
       <c r="B315" s="15"/>
-      <c r="K315" s="10"/>
+      <c r="K315" s="16"/>
     </row>
     <row r="316">
       <c r="B316" s="15"/>
-      <c r="K316" s="10"/>
+      <c r="K316" s="16"/>
     </row>
     <row r="317">
       <c r="B317" s="15"/>
-      <c r="K317" s="10"/>
+      <c r="K317" s="16"/>
     </row>
     <row r="318">
       <c r="B318" s="15"/>
-      <c r="K318" s="10"/>
+      <c r="K318" s="16"/>
     </row>
     <row r="319">
       <c r="B319" s="15"/>
-      <c r="K319" s="10"/>
+      <c r="K319" s="16"/>
     </row>
     <row r="320">
       <c r="B320" s="15"/>
-      <c r="K320" s="10"/>
+      <c r="K320" s="16"/>
     </row>
     <row r="321">
       <c r="B321" s="15"/>
-      <c r="K321" s="10"/>
+      <c r="K321" s="16"/>
     </row>
     <row r="322">
       <c r="B322" s="15"/>
-      <c r="K322" s="10"/>
+      <c r="K322" s="16"/>
     </row>
     <row r="323">
       <c r="B323" s="15"/>
-      <c r="K323" s="10"/>
+      <c r="K323" s="16"/>
     </row>
     <row r="324">
       <c r="B324" s="15"/>
-      <c r="K324" s="10"/>
+      <c r="K324" s="16"/>
     </row>
     <row r="325">
       <c r="B325" s="15"/>
-      <c r="K325" s="10"/>
+      <c r="K325" s="16"/>
     </row>
     <row r="326">
       <c r="B326" s="15"/>
-      <c r="K326" s="10"/>
+      <c r="K326" s="16"/>
     </row>
     <row r="327">
       <c r="B327" s="15"/>
-      <c r="K327" s="10"/>
+      <c r="K327" s="16"/>
     </row>
     <row r="328">
       <c r="B328" s="15"/>
-      <c r="K328" s="10"/>
+      <c r="K328" s="16"/>
     </row>
     <row r="329">
       <c r="B329" s="15"/>
-      <c r="K329" s="10"/>
+      <c r="K329" s="16"/>
     </row>
     <row r="330">
       <c r="B330" s="15"/>
-      <c r="K330" s="10"/>
+      <c r="K330" s="16"/>
     </row>
     <row r="331">
       <c r="B331" s="15"/>
-      <c r="K331" s="10"/>
+      <c r="K331" s="16"/>
     </row>
     <row r="332">
       <c r="B332" s="15"/>
-      <c r="K332" s="10"/>
+      <c r="K332" s="16"/>
     </row>
     <row r="333">
       <c r="B333" s="15"/>
-      <c r="K333" s="10"/>
+      <c r="K333" s="16"/>
     </row>
     <row r="334">
       <c r="B334" s="15"/>
-      <c r="K334" s="10"/>
+      <c r="K334" s="16"/>
     </row>
     <row r="335">
       <c r="B335" s="15"/>
-      <c r="K335" s="10"/>
+      <c r="K335" s="16"/>
     </row>
     <row r="336">
       <c r="B336" s="15"/>
-      <c r="K336" s="10"/>
+      <c r="K336" s="16"/>
     </row>
     <row r="337">
       <c r="B337" s="15"/>
-      <c r="K337" s="10"/>
+      <c r="K337" s="16"/>
     </row>
     <row r="338">
       <c r="B338" s="15"/>
-      <c r="K338" s="10"/>
+      <c r="K338" s="16"/>
     </row>
     <row r="339">
       <c r="B339" s="15"/>
-      <c r="K339" s="10"/>
+      <c r="K339" s="16"/>
     </row>
     <row r="340">
       <c r="B340" s="15"/>
-      <c r="K340" s="10"/>
+      <c r="K340" s="16"/>
     </row>
     <row r="341">
       <c r="B341" s="15"/>
-      <c r="K341" s="10"/>
+      <c r="K341" s="16"/>
     </row>
     <row r="342">
       <c r="B342" s="15"/>
-      <c r="K342" s="10"/>
+      <c r="K342" s="16"/>
     </row>
     <row r="343">
       <c r="B343" s="15"/>
-      <c r="K343" s="10"/>
+      <c r="K343" s="16"/>
     </row>
     <row r="344">
       <c r="B344" s="15"/>
-      <c r="K344" s="10"/>
+      <c r="K344" s="16"/>
     </row>
     <row r="345">
       <c r="B345" s="15"/>
-      <c r="K345" s="10"/>
+      <c r="K345" s="16"/>
     </row>
     <row r="346">
       <c r="B346" s="15"/>
-      <c r="K346" s="10"/>
+      <c r="K346" s="16"/>
     </row>
     <row r="347">
       <c r="B347" s="15"/>
-      <c r="K347" s="10"/>
+      <c r="K347" s="16"/>
     </row>
     <row r="348">
       <c r="B348" s="15"/>
-      <c r="K348" s="10"/>
+      <c r="K348" s="16"/>
     </row>
     <row r="349">
       <c r="B349" s="15"/>
-      <c r="K349" s="10"/>
+      <c r="K349" s="16"/>
     </row>
     <row r="350">
       <c r="B350" s="15"/>
-      <c r="K350" s="10"/>
+      <c r="K350" s="16"/>
     </row>
     <row r="351">
       <c r="B351" s="15"/>
-      <c r="K351" s="10"/>
+      <c r="K351" s="16"/>
     </row>
     <row r="352">
       <c r="B352" s="15"/>
-      <c r="K352" s="10"/>
+      <c r="K352" s="16"/>
     </row>
     <row r="353">
       <c r="B353" s="15"/>
-      <c r="K353" s="10"/>
+      <c r="K353" s="16"/>
     </row>
     <row r="354">
       <c r="B354" s="15"/>
-      <c r="K354" s="10"/>
+      <c r="K354" s="16"/>
     </row>
     <row r="355">
       <c r="B355" s="15"/>
-      <c r="K355" s="10"/>
+      <c r="K355" s="16"/>
     </row>
     <row r="356">
       <c r="B356" s="15"/>
-      <c r="K356" s="10"/>
+      <c r="K356" s="16"/>
     </row>
     <row r="357">
       <c r="B357" s="15"/>
-      <c r="K357" s="10"/>
+      <c r="K357" s="16"/>
     </row>
     <row r="358">
       <c r="B358" s="15"/>
-      <c r="K358" s="10"/>
+      <c r="K358" s="16"/>
     </row>
     <row r="359">
       <c r="B359" s="15"/>
-      <c r="K359" s="10"/>
+      <c r="K359" s="16"/>
     </row>
     <row r="360">
       <c r="B360" s="15"/>
-      <c r="K360" s="10"/>
+      <c r="K360" s="16"/>
     </row>
     <row r="361">
       <c r="B361" s="15"/>
-      <c r="K361" s="10"/>
+      <c r="K361" s="16"/>
     </row>
     <row r="362">
       <c r="B362" s="15"/>
-      <c r="K362" s="10"/>
+      <c r="K362" s="16"/>
     </row>
     <row r="363">
       <c r="B363" s="15"/>
-      <c r="K363" s="10"/>
+      <c r="K363" s="16"/>
     </row>
     <row r="364">
       <c r="B364" s="15"/>
-      <c r="K364" s="10"/>
+      <c r="K364" s="16"/>
     </row>
     <row r="365">
       <c r="B365" s="15"/>
-      <c r="K365" s="10"/>
+      <c r="K365" s="16"/>
     </row>
     <row r="366">
       <c r="B366" s="15"/>
-      <c r="K366" s="10"/>
+      <c r="K366" s="16"/>
     </row>
     <row r="367">
       <c r="B367" s="15"/>
-      <c r="K367" s="10"/>
+      <c r="K367" s="16"/>
     </row>
     <row r="368">
       <c r="B368" s="15"/>
-      <c r="K368" s="10"/>
+      <c r="K368" s="16"/>
     </row>
     <row r="369">
       <c r="B369" s="15"/>
-      <c r="K369" s="10"/>
+      <c r="K369" s="16"/>
     </row>
     <row r="370">
       <c r="B370" s="15"/>
-      <c r="K370" s="10"/>
+      <c r="K370" s="16"/>
     </row>
     <row r="371">
       <c r="B371" s="15"/>
-      <c r="K371" s="10"/>
+      <c r="K371" s="16"/>
     </row>
     <row r="372">
       <c r="B372" s="15"/>
-      <c r="K372" s="10"/>
+      <c r="K372" s="16"/>
     </row>
     <row r="373">
       <c r="B373" s="15"/>
-      <c r="K373" s="10"/>
+      <c r="K373" s="16"/>
     </row>
     <row r="374">
       <c r="B374" s="15"/>
-      <c r="K374" s="10"/>
+      <c r="K374" s="16"/>
     </row>
     <row r="375">
       <c r="B375" s="15"/>
-      <c r="K375" s="10"/>
+      <c r="K375" s="16"/>
     </row>
     <row r="376">
       <c r="B376" s="15"/>
-      <c r="K376" s="10"/>
+      <c r="K376" s="16"/>
     </row>
     <row r="377">
       <c r="B377" s="15"/>
-      <c r="K377" s="10"/>
+      <c r="K377" s="16"/>
     </row>
     <row r="378">
       <c r="B378" s="15"/>
-      <c r="K378" s="10"/>
+      <c r="K378" s="16"/>
     </row>
     <row r="379">
       <c r="B379" s="15"/>
-      <c r="K379" s="10"/>
+      <c r="K379" s="16"/>
     </row>
     <row r="380">
       <c r="B380" s="15"/>
-      <c r="K380" s="10"/>
+      <c r="K380" s="16"/>
     </row>
     <row r="381">
       <c r="B381" s="15"/>
-      <c r="K381" s="10"/>
+      <c r="K381" s="16"/>
     </row>
     <row r="382">
       <c r="B382" s="15"/>
-      <c r="K382" s="10"/>
+      <c r="K382" s="16"/>
     </row>
     <row r="383">
       <c r="B383" s="15"/>
-      <c r="K383" s="10"/>
+      <c r="K383" s="16"/>
     </row>
     <row r="384">
       <c r="B384" s="15"/>
-      <c r="K384" s="10"/>
+      <c r="K384" s="16"/>
     </row>
     <row r="385">
       <c r="B385" s="15"/>
-      <c r="K385" s="10"/>
+      <c r="K385" s="16"/>
     </row>
     <row r="386">
       <c r="B386" s="15"/>
-      <c r="K386" s="10"/>
+      <c r="K386" s="16"/>
     </row>
     <row r="387">
       <c r="B387" s="15"/>
-      <c r="K387" s="10"/>
+      <c r="K387" s="16"/>
     </row>
     <row r="388">
       <c r="B388" s="15"/>
-      <c r="K388" s="10"/>
+      <c r="K388" s="16"/>
     </row>
     <row r="389">
       <c r="B389" s="15"/>
-      <c r="K389" s="10"/>
+      <c r="K389" s="16"/>
     </row>
     <row r="390">
       <c r="B390" s="15"/>
-      <c r="K390" s="10"/>
+      <c r="K390" s="16"/>
     </row>
     <row r="391">
       <c r="B391" s="15"/>
-      <c r="K391" s="10"/>
+      <c r="K391" s="16"/>
     </row>
     <row r="392">
       <c r="B392" s="15"/>
-      <c r="K392" s="10"/>
+      <c r="K392" s="16"/>
     </row>
     <row r="393">
       <c r="B393" s="15"/>
-      <c r="K393" s="10"/>
+      <c r="K393" s="16"/>
     </row>
     <row r="394">
       <c r="B394" s="15"/>
-      <c r="K394" s="10"/>
+      <c r="K394" s="16"/>
     </row>
     <row r="395">
       <c r="B395" s="15"/>
-      <c r="K395" s="10"/>
+      <c r="K395" s="16"/>
     </row>
     <row r="396">
       <c r="B396" s="15"/>
-      <c r="K396" s="10"/>
+      <c r="K396" s="16"/>
     </row>
     <row r="397">
       <c r="B397" s="15"/>
-      <c r="K397" s="10"/>
+      <c r="K397" s="16"/>
     </row>
     <row r="398">
       <c r="B398" s="15"/>
-      <c r="K398" s="10"/>
+      <c r="K398" s="16"/>
     </row>
     <row r="399">
       <c r="B399" s="15"/>
-      <c r="K399" s="10"/>
+      <c r="K399" s="16"/>
     </row>
     <row r="400">
       <c r="B400" s="15"/>
-      <c r="K400" s="10"/>
+      <c r="K400" s="16"/>
     </row>
     <row r="401">
       <c r="B401" s="15"/>
-      <c r="K401" s="10"/>
+      <c r="K401" s="16"/>
     </row>
     <row r="402">
       <c r="B402" s="15"/>
-      <c r="K402" s="10"/>
+      <c r="K402" s="16"/>
     </row>
     <row r="403">
       <c r="B403" s="15"/>
-      <c r="K403" s="10"/>
+      <c r="K403" s="16"/>
     </row>
     <row r="404">
       <c r="B404" s="15"/>
-      <c r="K404" s="10"/>
+      <c r="K404" s="16"/>
     </row>
     <row r="405">
       <c r="B405" s="15"/>
-      <c r="K405" s="10"/>
+      <c r="K405" s="16"/>
     </row>
     <row r="406">
       <c r="B406" s="15"/>
-      <c r="K406" s="10"/>
+      <c r="K406" s="16"/>
     </row>
     <row r="407">
       <c r="B407" s="15"/>
-      <c r="K407" s="10"/>
+      <c r="K407" s="16"/>
     </row>
     <row r="408">
       <c r="B408" s="15"/>
-      <c r="K408" s="10"/>
+      <c r="K408" s="16"/>
     </row>
     <row r="409">
       <c r="B409" s="15"/>
-      <c r="K409" s="10"/>
+      <c r="K409" s="16"/>
     </row>
     <row r="410">
       <c r="B410" s="15"/>
-      <c r="K410" s="10"/>
+      <c r="K410" s="16"/>
     </row>
     <row r="411">
       <c r="B411" s="15"/>
-      <c r="K411" s="10"/>
+      <c r="K411" s="16"/>
     </row>
     <row r="412">
       <c r="B412" s="15"/>
-      <c r="K412" s="10"/>
+      <c r="K412" s="16"/>
     </row>
     <row r="413">
       <c r="B413" s="15"/>
-      <c r="K413" s="10"/>
+      <c r="K413" s="16"/>
     </row>
     <row r="414">
       <c r="B414" s="15"/>
-      <c r="K414" s="10"/>
+      <c r="K414" s="16"/>
     </row>
     <row r="415">
       <c r="B415" s="15"/>
-      <c r="K415" s="10"/>
+      <c r="K415" s="16"/>
     </row>
     <row r="416">
       <c r="B416" s="15"/>
-      <c r="K416" s="10"/>
+      <c r="K416" s="16"/>
     </row>
     <row r="417">
       <c r="B417" s="15"/>
-      <c r="K417" s="10"/>
+      <c r="K417" s="16"/>
     </row>
     <row r="418">
       <c r="B418" s="15"/>
-      <c r="K418" s="10"/>
+      <c r="K418" s="16"/>
     </row>
     <row r="419">
       <c r="B419" s="15"/>
-      <c r="K419" s="10"/>
+      <c r="K419" s="16"/>
     </row>
     <row r="420">
       <c r="B420" s="15"/>
-      <c r="K420" s="10"/>
+      <c r="K420" s="16"/>
     </row>
     <row r="421">
       <c r="B421" s="15"/>
-      <c r="K421" s="10"/>
+      <c r="K421" s="16"/>
     </row>
     <row r="422">
       <c r="B422" s="15"/>
-      <c r="K422" s="10"/>
+      <c r="K422" s="16"/>
     </row>
     <row r="423">
       <c r="B423" s="15"/>
-      <c r="K423" s="10"/>
+      <c r="K423" s="16"/>
     </row>
     <row r="424">
       <c r="B424" s="15"/>
-      <c r="K424" s="10"/>
+      <c r="K424" s="16"/>
     </row>
     <row r="425">
       <c r="B425" s="15"/>
-      <c r="K425" s="10"/>
+      <c r="K425" s="16"/>
     </row>
     <row r="426">
       <c r="B426" s="15"/>
-      <c r="K426" s="10"/>
+      <c r="K426" s="16"/>
     </row>
     <row r="427">
       <c r="B427" s="15"/>
-      <c r="K427" s="10"/>
+      <c r="K427" s="16"/>
     </row>
     <row r="428">
       <c r="B428" s="15"/>
-      <c r="K428" s="10"/>
+      <c r="K428" s="16"/>
     </row>
     <row r="429">
       <c r="B429" s="15"/>
-      <c r="K429" s="10"/>
+      <c r="K429" s="16"/>
     </row>
     <row r="430">
       <c r="B430" s="15"/>
-      <c r="K430" s="10"/>
+      <c r="K430" s="16"/>
     </row>
     <row r="431">
       <c r="B431" s="15"/>
-      <c r="K431" s="10"/>
+      <c r="K431" s="16"/>
     </row>
     <row r="432">
       <c r="B432" s="15"/>
-      <c r="K432" s="10"/>
+      <c r="K432" s="16"/>
     </row>
     <row r="433">
       <c r="B433" s="15"/>
-      <c r="K433" s="10"/>
+      <c r="K433" s="16"/>
     </row>
     <row r="434">
       <c r="B434" s="15"/>
-      <c r="K434" s="10"/>
+      <c r="K434" s="16"/>
     </row>
     <row r="435">
       <c r="B435" s="15"/>
-      <c r="K435" s="10"/>
+      <c r="K435" s="16"/>
     </row>
     <row r="436">
       <c r="B436" s="15"/>
-      <c r="K436" s="10"/>
+      <c r="K436" s="16"/>
     </row>
     <row r="437">
       <c r="B437" s="15"/>
-      <c r="K437" s="10"/>
+      <c r="K437" s="16"/>
     </row>
     <row r="438">
       <c r="B438" s="15"/>
-      <c r="K438" s="10"/>
+      <c r="K438" s="16"/>
     </row>
     <row r="439">
       <c r="B439" s="15"/>
-      <c r="K439" s="10"/>
+      <c r="K439" s="16"/>
     </row>
     <row r="440">
       <c r="B440" s="15"/>
-      <c r="K440" s="10"/>
+      <c r="K440" s="16"/>
     </row>
     <row r="441">
       <c r="B441" s="15"/>
-      <c r="K441" s="10"/>
+      <c r="K441" s="16"/>
     </row>
     <row r="442">
       <c r="B442" s="15"/>
-      <c r="K442" s="10"/>
+      <c r="K442" s="16"/>
     </row>
     <row r="443">
       <c r="B443" s="15"/>
-      <c r="K443" s="10"/>
+      <c r="K443" s="16"/>
     </row>
     <row r="444">
       <c r="B444" s="15"/>
-      <c r="K444" s="10"/>
+      <c r="K444" s="16"/>
     </row>
     <row r="445">
       <c r="B445" s="15"/>
-      <c r="K445" s="10"/>
+      <c r="K445" s="16"/>
     </row>
     <row r="446">
       <c r="B446" s="15"/>
-      <c r="K446" s="10"/>
+      <c r="K446" s="16"/>
     </row>
     <row r="447">
       <c r="B447" s="15"/>
-      <c r="K447" s="10"/>
+      <c r="K447" s="16"/>
     </row>
     <row r="448">
       <c r="B448" s="15"/>
-      <c r="K448" s="10"/>
+      <c r="K448" s="16"/>
     </row>
     <row r="449">
       <c r="B449" s="15"/>
-      <c r="K449" s="10"/>
+      <c r="K449" s="16"/>
     </row>
     <row r="450">
       <c r="B450" s="15"/>
-      <c r="K450" s="10"/>
+      <c r="K450" s="16"/>
     </row>
     <row r="451">
       <c r="B451" s="15"/>
-      <c r="K451" s="10"/>
+      <c r="K451" s="16"/>
     </row>
     <row r="452">
       <c r="B452" s="15"/>
-      <c r="K452" s="10"/>
+      <c r="K452" s="16"/>
     </row>
     <row r="453">
       <c r="B453" s="15"/>
-      <c r="K453" s="10"/>
+      <c r="K453" s="16"/>
     </row>
     <row r="454">
       <c r="B454" s="15"/>
-      <c r="K454" s="10"/>
+      <c r="K454" s="16"/>
     </row>
     <row r="455">
       <c r="B455" s="15"/>
-      <c r="K455" s="10"/>
+      <c r="K455" s="16"/>
     </row>
     <row r="456">
       <c r="B456" s="15"/>
-      <c r="K456" s="10"/>
+      <c r="K456" s="16"/>
     </row>
     <row r="457">
       <c r="B457" s="15"/>
-      <c r="K457" s="10"/>
+      <c r="K457" s="16"/>
     </row>
     <row r="458">
       <c r="B458" s="15"/>
-      <c r="K458" s="10"/>
+      <c r="K458" s="16"/>
     </row>
     <row r="459">
       <c r="B459" s="15"/>
-      <c r="K459" s="10"/>
+      <c r="K459" s="16"/>
     </row>
     <row r="460">
       <c r="B460" s="15"/>
-      <c r="K460" s="10"/>
+      <c r="K460" s="16"/>
     </row>
     <row r="461">
       <c r="B461" s="15"/>
-      <c r="K461" s="10"/>
+      <c r="K461" s="16"/>
     </row>
     <row r="462">
       <c r="B462" s="15"/>
-      <c r="K462" s="10"/>
+      <c r="K462" s="16"/>
     </row>
     <row r="463">
       <c r="B463" s="15"/>
-      <c r="K463" s="10"/>
+      <c r="K463" s="16"/>
     </row>
     <row r="464">
       <c r="B464" s="15"/>
-      <c r="K464" s="10"/>
+      <c r="K464" s="16"/>
     </row>
     <row r="465">
       <c r="B465" s="15"/>
-      <c r="K465" s="10"/>
+      <c r="K465" s="16"/>
     </row>
     <row r="466">
       <c r="B466" s="15"/>
-      <c r="K466" s="10"/>
+      <c r="K466" s="16"/>
     </row>
     <row r="467">
       <c r="B467" s="15"/>
-      <c r="K467" s="10"/>
+      <c r="K467" s="16"/>
     </row>
     <row r="468">
       <c r="B468" s="15"/>
-      <c r="K468" s="10"/>
+      <c r="K468" s="16"/>
     </row>
     <row r="469">
       <c r="B469" s="15"/>
-      <c r="K469" s="10"/>
+      <c r="K469" s="16"/>
     </row>
     <row r="470">
       <c r="B470" s="15"/>
-      <c r="K470" s="10"/>
+      <c r="K470" s="16"/>
     </row>
     <row r="471">
       <c r="B471" s="15"/>
-      <c r="K471" s="10"/>
+      <c r="K471" s="16"/>
     </row>
     <row r="472">
       <c r="B472" s="15"/>
-      <c r="K472" s="10"/>
+      <c r="K472" s="16"/>
     </row>
     <row r="473">
       <c r="B473" s="15"/>
-      <c r="K473" s="10"/>
+      <c r="K473" s="16"/>
     </row>
     <row r="474">
       <c r="B474" s="15"/>
-      <c r="K474" s="10"/>
+      <c r="K474" s="16"/>
     </row>
     <row r="475">
       <c r="B475" s="15"/>
-      <c r="K475" s="10"/>
+      <c r="K475" s="16"/>
     </row>
     <row r="476">
       <c r="B476" s="15"/>
-      <c r="K476" s="10"/>
+      <c r="K476" s="16"/>
     </row>
     <row r="477">
       <c r="B477" s="15"/>
-      <c r="K477" s="10"/>
+      <c r="K477" s="16"/>
     </row>
     <row r="478">
       <c r="B478" s="15"/>
-      <c r="K478" s="10"/>
+      <c r="K478" s="16"/>
     </row>
     <row r="479">
       <c r="B479" s="15"/>
-      <c r="K479" s="10"/>
+      <c r="K479" s="16"/>
     </row>
     <row r="480">
       <c r="B480" s="15"/>
-      <c r="K480" s="10"/>
+      <c r="K480" s="16"/>
     </row>
     <row r="481">
       <c r="B481" s="15"/>
-      <c r="K481" s="10"/>
+      <c r="K481" s="16"/>
     </row>
     <row r="482">
       <c r="B482" s="15"/>
-      <c r="K482" s="10"/>
+      <c r="K482" s="16"/>
     </row>
     <row r="483">
       <c r="B483" s="15"/>
-      <c r="K483" s="10"/>
+      <c r="K483" s="16"/>
     </row>
     <row r="484">
       <c r="B484" s="15"/>
-      <c r="K484" s="10"/>
+      <c r="K484" s="16"/>
     </row>
     <row r="485">
       <c r="B485" s="15"/>
-      <c r="K485" s="10"/>
+      <c r="K485" s="16"/>
     </row>
     <row r="486">
       <c r="B486" s="15"/>
-      <c r="K486" s="10"/>
+      <c r="K486" s="16"/>
     </row>
     <row r="487">
       <c r="B487" s="15"/>
-      <c r="K487" s="10"/>
+      <c r="K487" s="16"/>
     </row>
     <row r="488">
       <c r="B488" s="15"/>
-      <c r="K488" s="10"/>
+      <c r="K488" s="16"/>
     </row>
     <row r="489">
       <c r="B489" s="15"/>
-      <c r="K489" s="10"/>
+      <c r="K489" s="16"/>
     </row>
     <row r="490">
       <c r="B490" s="15"/>
-      <c r="K490" s="10"/>
+      <c r="K490" s="16"/>
     </row>
     <row r="491">
       <c r="B491" s="15"/>
-      <c r="K491" s="10"/>
+      <c r="K491" s="16"/>
     </row>
     <row r="492">
       <c r="B492" s="15"/>
-      <c r="K492" s="10"/>
+      <c r="K492" s="16"/>
     </row>
     <row r="493">
       <c r="B493" s="15"/>
-      <c r="K493" s="10"/>
+      <c r="K493" s="16"/>
     </row>
     <row r="494">
       <c r="B494" s="15"/>
-      <c r="K494" s="10"/>
+      <c r="K494" s="16"/>
     </row>
     <row r="495">
       <c r="B495" s="15"/>
-      <c r="K495" s="10"/>
+      <c r="K495" s="16"/>
     </row>
     <row r="496">
       <c r="B496" s="15"/>
-      <c r="K496" s="10"/>
+      <c r="K496" s="16"/>
     </row>
     <row r="497">
       <c r="B497" s="15"/>
-      <c r="K497" s="10"/>
+      <c r="K497" s="16"/>
     </row>
     <row r="498">
       <c r="B498" s="15"/>
-      <c r="K498" s="10"/>
+      <c r="K498" s="16"/>
     </row>
     <row r="499">
       <c r="B499" s="15"/>
-      <c r="K499" s="10"/>
+      <c r="K499" s="16"/>
     </row>
     <row r="500">
       <c r="B500" s="15"/>
-      <c r="K500" s="10"/>
+      <c r="K500" s="16"/>
     </row>
     <row r="501">
       <c r="B501" s="15"/>
-      <c r="K501" s="10"/>
+      <c r="K501" s="16"/>
     </row>
     <row r="502">
       <c r="B502" s="15"/>
-      <c r="K502" s="10"/>
+      <c r="K502" s="16"/>
     </row>
     <row r="503">
       <c r="B503" s="15"/>
-      <c r="K503" s="10"/>
+      <c r="K503" s="16"/>
     </row>
     <row r="504">
       <c r="B504" s="15"/>
-      <c r="K504" s="10"/>
+      <c r="K504" s="16"/>
     </row>
     <row r="505">
       <c r="B505" s="15"/>
-      <c r="K505" s="10"/>
+      <c r="K505" s="16"/>
     </row>
     <row r="506">
       <c r="B506" s="15"/>
-      <c r="K506" s="10"/>
+      <c r="K506" s="16"/>
     </row>
     <row r="507">
       <c r="B507" s="15"/>
-      <c r="K507" s="10"/>
+      <c r="K507" s="16"/>
     </row>
     <row r="508">
       <c r="B508" s="15"/>
-      <c r="K508" s="10"/>
+      <c r="K508" s="16"/>
     </row>
     <row r="509">
       <c r="B509" s="15"/>
-      <c r="K509" s="10"/>
+      <c r="K509" s="16"/>
     </row>
     <row r="510">
       <c r="B510" s="15"/>
-      <c r="K510" s="10"/>
+      <c r="K510" s="16"/>
     </row>
     <row r="511">
       <c r="B511" s="15"/>
-      <c r="K511" s="10"/>
+      <c r="K511" s="16"/>
     </row>
     <row r="512">
       <c r="B512" s="15"/>
-      <c r="K512" s="10"/>
+      <c r="K512" s="16"/>
     </row>
     <row r="513">
       <c r="B513" s="15"/>
-      <c r="K513" s="10"/>
+      <c r="K513" s="16"/>
     </row>
     <row r="514">
       <c r="B514" s="15"/>
-      <c r="K514" s="10"/>
+      <c r="K514" s="16"/>
     </row>
     <row r="515">
       <c r="B515" s="15"/>
-      <c r="K515" s="10"/>
+      <c r="K515" s="16"/>
     </row>
     <row r="516">
       <c r="B516" s="15"/>
-      <c r="K516" s="10"/>
+      <c r="K516" s="16"/>
     </row>
     <row r="517">
       <c r="B517" s="15"/>
-      <c r="K517" s="10"/>
+      <c r="K517" s="16"/>
     </row>
     <row r="518">
       <c r="B518" s="15"/>
-      <c r="K518" s="10"/>
+      <c r="K518" s="16"/>
     </row>
     <row r="519">
       <c r="B519" s="15"/>
-      <c r="K519" s="10"/>
+      <c r="K519" s="16"/>
     </row>
     <row r="520">
       <c r="B520" s="15"/>
-      <c r="K520" s="10"/>
+      <c r="K520" s="16"/>
     </row>
     <row r="521">
       <c r="B521" s="15"/>
-      <c r="K521" s="10"/>
+      <c r="K521" s="16"/>
     </row>
     <row r="522">
       <c r="B522" s="15"/>
-      <c r="K522" s="10"/>
+      <c r="K522" s="16"/>
     </row>
     <row r="523">
       <c r="B523" s="15"/>
-      <c r="K523" s="10"/>
+      <c r="K523" s="16"/>
     </row>
     <row r="524">
       <c r="B524" s="15"/>
-      <c r="K524" s="10"/>
+      <c r="K524" s="16"/>
     </row>
     <row r="525">
       <c r="B525" s="15"/>
-      <c r="K525" s="10"/>
+      <c r="K525" s="16"/>
     </row>
     <row r="526">
       <c r="B526" s="15"/>
-      <c r="K526" s="10"/>
+      <c r="K526" s="16"/>
     </row>
     <row r="527">
       <c r="B527" s="15"/>
-      <c r="K527" s="10"/>
+      <c r="K527" s="16"/>
     </row>
     <row r="528">
       <c r="B528" s="15"/>
-      <c r="K528" s="10"/>
+      <c r="K528" s="16"/>
     </row>
     <row r="529">
       <c r="B529" s="15"/>
-      <c r="K529" s="10"/>
+      <c r="K529" s="16"/>
     </row>
     <row r="530">
       <c r="B530" s="15"/>
-      <c r="K530" s="10"/>
+      <c r="K530" s="16"/>
     </row>
     <row r="531">
       <c r="B531" s="15"/>
-      <c r="K531" s="10"/>
+      <c r="K531" s="16"/>
     </row>
     <row r="532">
       <c r="B532" s="15"/>
-      <c r="K532" s="10"/>
+      <c r="K532" s="16"/>
     </row>
     <row r="533">
       <c r="B533" s="15"/>
-      <c r="K533" s="10"/>
+      <c r="K533" s="16"/>
     </row>
     <row r="534">
       <c r="B534" s="15"/>
-      <c r="K534" s="10"/>
+      <c r="K534" s="16"/>
     </row>
     <row r="535">
       <c r="B535" s="15"/>
-      <c r="K535" s="10"/>
+      <c r="K535" s="16"/>
     </row>
     <row r="536">
       <c r="B536" s="15"/>
-      <c r="K536" s="10"/>
+      <c r="K536" s="16"/>
     </row>
     <row r="537">
       <c r="B537" s="15"/>
-      <c r="K537" s="10"/>
+      <c r="K537" s="16"/>
     </row>
     <row r="538">
       <c r="B538" s="15"/>
-      <c r="K538" s="10"/>
+      <c r="K538" s="16"/>
     </row>
     <row r="539">
       <c r="B539" s="15"/>
-      <c r="K539" s="10"/>
+      <c r="K539" s="16"/>
     </row>
     <row r="540">
       <c r="B540" s="15"/>
-      <c r="K540" s="10"/>
+      <c r="K540" s="16"/>
     </row>
     <row r="541">
       <c r="B541" s="15"/>
-      <c r="K541" s="10"/>
+      <c r="K541" s="16"/>
     </row>
     <row r="542">
       <c r="B542" s="15"/>
-      <c r="K542" s="10"/>
+      <c r="K542" s="16"/>
     </row>
     <row r="543">
       <c r="B543" s="15"/>
-      <c r="K543" s="10"/>
+      <c r="K543" s="16"/>
     </row>
     <row r="544">
       <c r="B544" s="15"/>
-      <c r="K544" s="10"/>
+      <c r="K544" s="16"/>
     </row>
     <row r="545">
       <c r="B545" s="15"/>
-      <c r="K545" s="10"/>
+      <c r="K545" s="16"/>
     </row>
     <row r="546">
       <c r="B546" s="15"/>
-      <c r="K546" s="10"/>
+      <c r="K546" s="16"/>
     </row>
     <row r="547">
       <c r="B547" s="15"/>
-      <c r="K547" s="10"/>
+      <c r="K547" s="16"/>
     </row>
     <row r="548">
       <c r="B548" s="15"/>
-      <c r="K548" s="10"/>
+      <c r="K548" s="16"/>
     </row>
     <row r="549">
       <c r="B549" s="15"/>
-      <c r="K549" s="10"/>
+      <c r="K549" s="16"/>
     </row>
     <row r="550">
       <c r="B550" s="15"/>
-      <c r="K550" s="10"/>
+      <c r="K550" s="16"/>
     </row>
     <row r="551">
       <c r="B551" s="15"/>
-      <c r="K551" s="10"/>
+      <c r="K551" s="16"/>
     </row>
     <row r="552">
       <c r="B552" s="15"/>
-      <c r="K552" s="10"/>
+      <c r="K552" s="16"/>
     </row>
     <row r="553">
       <c r="B553" s="15"/>
-      <c r="K553" s="10"/>
+      <c r="K553" s="16"/>
     </row>
     <row r="554">
       <c r="B554" s="15"/>
-      <c r="K554" s="10"/>
+      <c r="K554" s="16"/>
     </row>
     <row r="555">
       <c r="B555" s="15"/>
-      <c r="K555" s="10"/>
+      <c r="K555" s="16"/>
     </row>
     <row r="556">
       <c r="B556" s="15"/>
-      <c r="K556" s="10"/>
+      <c r="K556" s="16"/>
     </row>
     <row r="557">
       <c r="B557" s="15"/>
-      <c r="K557" s="10"/>
+      <c r="K557" s="16"/>
     </row>
     <row r="558">
       <c r="B558" s="15"/>
-      <c r="K558" s="10"/>
+      <c r="K558" s="16"/>
     </row>
     <row r="559">
       <c r="B559" s="15"/>
-      <c r="K559" s="10"/>
+      <c r="K559" s="16"/>
     </row>
     <row r="560">
       <c r="B560" s="15"/>
-      <c r="K560" s="10"/>
+      <c r="K560" s="16"/>
     </row>
     <row r="561">
       <c r="B561" s="15"/>
-      <c r="K561" s="10"/>
+      <c r="K561" s="16"/>
     </row>
     <row r="562">
       <c r="B562" s="15"/>
-      <c r="K562" s="10"/>
+      <c r="K562" s="16"/>
     </row>
     <row r="563">
       <c r="B563" s="15"/>
-      <c r="K563" s="10"/>
+      <c r="K563" s="16"/>
     </row>
     <row r="564">
       <c r="B564" s="15"/>
-      <c r="K564" s="10"/>
+      <c r="K564" s="16"/>
     </row>
     <row r="565">
       <c r="B565" s="15"/>
-      <c r="K565" s="10"/>
+      <c r="K565" s="16"/>
     </row>
     <row r="566">
       <c r="B566" s="15"/>
-      <c r="K566" s="10"/>
+      <c r="K566" s="16"/>
     </row>
     <row r="567">
       <c r="B567" s="15"/>
-      <c r="K567" s="10"/>
+      <c r="K567" s="16"/>
     </row>
     <row r="568">
       <c r="B568" s="15"/>
-      <c r="K568" s="10"/>
+      <c r="K568" s="16"/>
     </row>
     <row r="569">
       <c r="B569" s="15"/>
-      <c r="K569" s="10"/>
+      <c r="K569" s="16"/>
     </row>
     <row r="570">
       <c r="B570" s="15"/>
-      <c r="K570" s="10"/>
+      <c r="K570" s="16"/>
     </row>
     <row r="571">
       <c r="B571" s="15"/>
-      <c r="K571" s="10"/>
+      <c r="K571" s="16"/>
     </row>
     <row r="572">
       <c r="B572" s="15"/>
-      <c r="K572" s="10"/>
+      <c r="K572" s="16"/>
     </row>
     <row r="573">
       <c r="B573" s="15"/>
-      <c r="K573" s="10"/>
+      <c r="K573" s="16"/>
     </row>
     <row r="574">
       <c r="B574" s="15"/>
-      <c r="K574" s="10"/>
+      <c r="K574" s="16"/>
     </row>
     <row r="575">
       <c r="B575" s="15"/>
-      <c r="K575" s="10"/>
+      <c r="K575" s="16"/>
     </row>
     <row r="576">
       <c r="B576" s="15"/>
-      <c r="K576" s="10"/>
+      <c r="K576" s="16"/>
     </row>
     <row r="577">
       <c r="B577" s="15"/>
-      <c r="K577" s="10"/>
+      <c r="K577" s="16"/>
     </row>
     <row r="578">
       <c r="B578" s="15"/>
-      <c r="K578" s="10"/>
+      <c r="K578" s="16"/>
     </row>
     <row r="579">
       <c r="B579" s="15"/>
-      <c r="K579" s="10"/>
+      <c r="K579" s="16"/>
     </row>
     <row r="580">
       <c r="B580" s="15"/>
-      <c r="K580" s="10"/>
+      <c r="K580" s="16"/>
     </row>
     <row r="581">
       <c r="B581" s="15"/>
-      <c r="K581" s="10"/>
+      <c r="K581" s="16"/>
     </row>
     <row r="582">
       <c r="B582" s="15"/>
-      <c r="K582" s="10"/>
+      <c r="K582" s="16"/>
     </row>
     <row r="583">
       <c r="B583" s="15"/>
-      <c r="K583" s="10"/>
+      <c r="K583" s="16"/>
     </row>
     <row r="584">
       <c r="B584" s="15"/>
-      <c r="K584" s="10"/>
+      <c r="K584" s="16"/>
     </row>
     <row r="585">
       <c r="B585" s="15"/>
-      <c r="K585" s="10"/>
+      <c r="K585" s="16"/>
     </row>
     <row r="586">
       <c r="B586" s="15"/>
-      <c r="K586" s="10"/>
+      <c r="K586" s="16"/>
     </row>
     <row r="587">
       <c r="B587" s="15"/>
-      <c r="K587" s="10"/>
+      <c r="K587" s="16"/>
     </row>
     <row r="588">
       <c r="B588" s="15"/>
-      <c r="K588" s="10"/>
+      <c r="K588" s="16"/>
     </row>
     <row r="589">
       <c r="B589" s="15"/>
-      <c r="K589" s="10"/>
+      <c r="K589" s="16"/>
     </row>
     <row r="590">
       <c r="B590" s="15"/>
-      <c r="K590" s="10"/>
+      <c r="K590" s="16"/>
     </row>
     <row r="591">
       <c r="B591" s="15"/>
-      <c r="K591" s="10"/>
+      <c r="K591" s="16"/>
     </row>
     <row r="592">
       <c r="B592" s="15"/>
-      <c r="K592" s="10"/>
+      <c r="K592" s="16"/>
     </row>
     <row r="593">
       <c r="B593" s="15"/>
-      <c r="K593" s="10"/>
+      <c r="K593" s="16"/>
     </row>
     <row r="594">
       <c r="B594" s="15"/>
-      <c r="K594" s="10"/>
+      <c r="K594" s="16"/>
     </row>
     <row r="595">
       <c r="B595" s="15"/>
-      <c r="K595" s="10"/>
+      <c r="K595" s="16"/>
     </row>
     <row r="596">
       <c r="B596" s="15"/>
-      <c r="K596" s="10"/>
+      <c r="K596" s="16"/>
     </row>
     <row r="597">
       <c r="B597" s="15"/>
-      <c r="K597" s="10"/>
+      <c r="K597" s="16"/>
     </row>
     <row r="598">
       <c r="B598" s="15"/>
-      <c r="K598" s="10"/>
+      <c r="K598" s="16"/>
     </row>
     <row r="599">
       <c r="B599" s="15"/>
-      <c r="K599" s="10"/>
+      <c r="K599" s="16"/>
     </row>
     <row r="600">
       <c r="B600" s="15"/>
-      <c r="K600" s="10"/>
+      <c r="K600" s="16"/>
     </row>
     <row r="601">
       <c r="B601" s="15"/>
-      <c r="K601" s="10"/>
+      <c r="K601" s="16"/>
     </row>
     <row r="602">
       <c r="B602" s="15"/>
-      <c r="K602" s="10"/>
+      <c r="K602" s="16"/>
     </row>
     <row r="603">
       <c r="B603" s="15"/>
-      <c r="K603" s="10"/>
+      <c r="K603" s="16"/>
     </row>
     <row r="604">
       <c r="B604" s="15"/>
-      <c r="K604" s="10"/>
+      <c r="K604" s="16"/>
     </row>
     <row r="605">
       <c r="B605" s="15"/>
-      <c r="K605" s="10"/>
+      <c r="K605" s="16"/>
     </row>
     <row r="606">
       <c r="B606" s="15"/>
-      <c r="K606" s="10"/>
+      <c r="K606" s="16"/>
     </row>
     <row r="607">
       <c r="B607" s="15"/>
-      <c r="K607" s="10"/>
+      <c r="K607" s="16"/>
     </row>
     <row r="608">
       <c r="B608" s="15"/>
-      <c r="K608" s="10"/>
+      <c r="K608" s="16"/>
     </row>
     <row r="609">
       <c r="B609" s="15"/>
-      <c r="K609" s="10"/>
+      <c r="K609" s="16"/>
     </row>
     <row r="610">
       <c r="B610" s="15"/>
-      <c r="K610" s="10"/>
+      <c r="K610" s="16"/>
     </row>
     <row r="611">
       <c r="B611" s="15"/>
-      <c r="K611" s="10"/>
+      <c r="K611" s="16"/>
     </row>
     <row r="612">
       <c r="B612" s="15"/>
-      <c r="K612" s="10"/>
+      <c r="K612" s="16"/>
     </row>
     <row r="613">
       <c r="B613" s="15"/>
-      <c r="K613" s="10"/>
+      <c r="K613" s="16"/>
     </row>
     <row r="614">
       <c r="B614" s="15"/>
-      <c r="K614" s="10"/>
+      <c r="K614" s="16"/>
     </row>
     <row r="615">
       <c r="B615" s="15"/>
-      <c r="K615" s="10"/>
+      <c r="K615" s="16"/>
     </row>
     <row r="616">
       <c r="B616" s="15"/>
-      <c r="K616" s="10"/>
+      <c r="K616" s="16"/>
     </row>
     <row r="617">
       <c r="B617" s="15"/>
-      <c r="K617" s="10"/>
+      <c r="K617" s="16"/>
     </row>
     <row r="618">
       <c r="B618" s="15"/>
-      <c r="K618" s="10"/>
+      <c r="K618" s="16"/>
     </row>
     <row r="619">
       <c r="B619" s="15"/>
-      <c r="K619" s="10"/>
+      <c r="K619" s="16"/>
     </row>
     <row r="620">
       <c r="B620" s="15"/>
-      <c r="K620" s="10"/>
+      <c r="K620" s="16"/>
     </row>
     <row r="621">
       <c r="B621" s="15"/>
-      <c r="K621" s="10"/>
+      <c r="K621" s="16"/>
     </row>
     <row r="622">
       <c r="B622" s="15"/>
-      <c r="K622" s="10"/>
+      <c r="K622" s="16"/>
     </row>
     <row r="623">
       <c r="B623" s="15"/>
-      <c r="K623" s="10"/>
+      <c r="K623" s="16"/>
     </row>
     <row r="624">
       <c r="B624" s="15"/>
-      <c r="K624" s="10"/>
+      <c r="K624" s="16"/>
     </row>
     <row r="625">
       <c r="B625" s="15"/>
-      <c r="K625" s="10"/>
+      <c r="K625" s="16"/>
     </row>
     <row r="626">
       <c r="B626" s="15"/>
-      <c r="K626" s="10"/>
+      <c r="K626" s="16"/>
     </row>
     <row r="627">
       <c r="B627" s="15"/>
-      <c r="K627" s="10"/>
+      <c r="K627" s="16"/>
     </row>
     <row r="628">
       <c r="B628" s="15"/>
-      <c r="K628" s="10"/>
+      <c r="K628" s="16"/>
     </row>
     <row r="629">
       <c r="B629" s="15"/>
-      <c r="K629" s="10"/>
+      <c r="K629" s="16"/>
     </row>
     <row r="630">
       <c r="B630" s="15"/>
-      <c r="K630" s="10"/>
+      <c r="K630" s="16"/>
     </row>
     <row r="631">
       <c r="B631" s="15"/>
-      <c r="K631" s="10"/>
+      <c r="K631" s="16"/>
     </row>
     <row r="632">
       <c r="B632" s="15"/>
-      <c r="K632" s="10"/>
+      <c r="K632" s="16"/>
     </row>
     <row r="633">
       <c r="B633" s="15"/>
-      <c r="K633" s="10"/>
+      <c r="K633" s="16"/>
     </row>
     <row r="634">
       <c r="B634" s="15"/>
-      <c r="K634" s="10"/>
+      <c r="K634" s="16"/>
     </row>
     <row r="635">
       <c r="B635" s="15"/>
-      <c r="K635" s="10"/>
+      <c r="K635" s="16"/>
     </row>
     <row r="636">
       <c r="B636" s="15"/>
-      <c r="K636" s="10"/>
+      <c r="K636" s="16"/>
     </row>
     <row r="637">
       <c r="B637" s="15"/>
-      <c r="K637" s="10"/>
+      <c r="K637" s="16"/>
     </row>
     <row r="638">
       <c r="B638" s="15"/>
-      <c r="K638" s="10"/>
+      <c r="K638" s="16"/>
     </row>
     <row r="639">
       <c r="B639" s="15"/>
-      <c r="K639" s="10"/>
+      <c r="K639" s="16"/>
     </row>
     <row r="640">
       <c r="B640" s="15"/>
-      <c r="K640" s="10"/>
+      <c r="K640" s="16"/>
     </row>
     <row r="641">
       <c r="B641" s="15"/>
-      <c r="K641" s="10"/>
+      <c r="K641" s="16"/>
     </row>
     <row r="642">
       <c r="B642" s="15"/>
-      <c r="K642" s="10"/>
+      <c r="K642" s="16"/>
     </row>
     <row r="643">
       <c r="B643" s="15"/>
-      <c r="K643" s="10"/>
+      <c r="K643" s="16"/>
     </row>
     <row r="644">
       <c r="B644" s="15"/>
-      <c r="K644" s="10"/>
+      <c r="K644" s="16"/>
     </row>
     <row r="645">
       <c r="B645" s="15"/>
-      <c r="K645" s="10"/>
+      <c r="K645" s="16"/>
     </row>
     <row r="646">
       <c r="B646" s="15"/>
-      <c r="K646" s="10"/>
+      <c r="K646" s="16"/>
     </row>
     <row r="647">
       <c r="B647" s="15"/>
-      <c r="K647" s="10"/>
+      <c r="K647" s="16"/>
     </row>
     <row r="648">
       <c r="B648" s="15"/>
-      <c r="K648" s="10"/>
+      <c r="K648" s="16"/>
     </row>
     <row r="649">
       <c r="B649" s="15"/>
-      <c r="K649" s="10"/>
+      <c r="K649" s="16"/>
     </row>
     <row r="650">
       <c r="B650" s="15"/>
-      <c r="K650" s="10"/>
+      <c r="K650" s="16"/>
     </row>
     <row r="651">
       <c r="B651" s="15"/>
-      <c r="K651" s="10"/>
+      <c r="K651" s="16"/>
     </row>
     <row r="652">
       <c r="B652" s="15"/>
-      <c r="K652" s="10"/>
+      <c r="K652" s="16"/>
     </row>
     <row r="653">
       <c r="B653" s="15"/>
-      <c r="K653" s="10"/>
+      <c r="K653" s="16"/>
     </row>
     <row r="654">
       <c r="B654" s="15"/>
-      <c r="K654" s="10"/>
+      <c r="K654" s="16"/>
     </row>
     <row r="655">
       <c r="B655" s="15"/>
-      <c r="K655" s="10"/>
+      <c r="K655" s="16"/>
     </row>
     <row r="656">
       <c r="B656" s="15"/>
-      <c r="K656" s="10"/>
+      <c r="K656" s="16"/>
     </row>
     <row r="657">
       <c r="B657" s="15"/>
-      <c r="K657" s="10"/>
+      <c r="K657" s="16"/>
     </row>
     <row r="658">
       <c r="B658" s="15"/>
-      <c r="K658" s="10"/>
+      <c r="K658" s="16"/>
     </row>
     <row r="659">
       <c r="B659" s="15"/>
-      <c r="K659" s="10"/>
+      <c r="K659" s="16"/>
     </row>
     <row r="660">
       <c r="B660" s="15"/>
-      <c r="K660" s="10"/>
+      <c r="K660" s="16"/>
     </row>
     <row r="661">
       <c r="B661" s="15"/>
-      <c r="K661" s="10"/>
+      <c r="K661" s="16"/>
     </row>
     <row r="662">
       <c r="B662" s="15"/>
-      <c r="K662" s="10"/>
+      <c r="K662" s="16"/>
     </row>
     <row r="663">
       <c r="B663" s="15"/>
-      <c r="K663" s="10"/>
+      <c r="K663" s="16"/>
     </row>
     <row r="664">
       <c r="B664" s="15"/>
-      <c r="K664" s="10"/>
+      <c r="K664" s="16"/>
     </row>
     <row r="665">
       <c r="B665" s="15"/>
-      <c r="K665" s="10"/>
+      <c r="K665" s="16"/>
     </row>
     <row r="666">
       <c r="B666" s="15"/>
-      <c r="K666" s="10"/>
+      <c r="K666" s="16"/>
     </row>
     <row r="667">
       <c r="B667" s="15"/>
-      <c r="K667" s="10"/>
+      <c r="K667" s="16"/>
     </row>
     <row r="668">
       <c r="B668" s="15"/>
-      <c r="K668" s="10"/>
+      <c r="K668" s="16"/>
     </row>
     <row r="669">
       <c r="B669" s="15"/>
-      <c r="K669" s="10"/>
+      <c r="K669" s="16"/>
     </row>
     <row r="670">
       <c r="B670" s="15"/>
-      <c r="K670" s="10"/>
+      <c r="K670" s="16"/>
     </row>
     <row r="671">
       <c r="B671" s="15"/>
-      <c r="K671" s="10"/>
+      <c r="K671" s="16"/>
     </row>
     <row r="672">
       <c r="B672" s="15"/>
-      <c r="K672" s="10"/>
+      <c r="K672" s="16"/>
     </row>
     <row r="673">
       <c r="B673" s="15"/>
-      <c r="K673" s="10"/>
+      <c r="K673" s="16"/>
     </row>
     <row r="674">
       <c r="B674" s="15"/>
-      <c r="K674" s="10"/>
+      <c r="K674" s="16"/>
     </row>
     <row r="675">
       <c r="B675" s="15"/>
-      <c r="K675" s="10"/>
+      <c r="K675" s="16"/>
     </row>
     <row r="676">
       <c r="B676" s="15"/>
-      <c r="K676" s="10"/>
+      <c r="K676" s="16"/>
     </row>
     <row r="677">
       <c r="B677" s="15"/>
-      <c r="K677" s="10"/>
+      <c r="K677" s="16"/>
     </row>
     <row r="678">
       <c r="B678" s="15"/>
-      <c r="K678" s="10"/>
+      <c r="K678" s="16"/>
     </row>
     <row r="679">
       <c r="B679" s="15"/>
-      <c r="K679" s="10"/>
+      <c r="K679" s="16"/>
     </row>
     <row r="680">
       <c r="B680" s="15"/>
-      <c r="K680" s="10"/>
+      <c r="K680" s="16"/>
     </row>
     <row r="681">
       <c r="B681" s="15"/>
-      <c r="K681" s="10"/>
+      <c r="K681" s="16"/>
     </row>
     <row r="682">
       <c r="B682" s="15"/>
-      <c r="K682" s="10"/>
+      <c r="K682" s="16"/>
     </row>
     <row r="683">
       <c r="B683" s="15"/>
-      <c r="K683" s="10"/>
+      <c r="K683" s="16"/>
     </row>
     <row r="684">
       <c r="B684" s="15"/>
-      <c r="K684" s="10"/>
+      <c r="K684" s="16"/>
     </row>
     <row r="685">
       <c r="B685" s="15"/>
-      <c r="K685" s="10"/>
+      <c r="K685" s="16"/>
     </row>
     <row r="686">
       <c r="B686" s="15"/>
-      <c r="K686" s="10"/>
+      <c r="K686" s="16"/>
     </row>
     <row r="687">
       <c r="B687" s="15"/>
-      <c r="K687" s="10"/>
+      <c r="K687" s="16"/>
     </row>
     <row r="688">
       <c r="B688" s="15"/>
-      <c r="K688" s="10"/>
+      <c r="K688" s="16"/>
     </row>
     <row r="689">
       <c r="B689" s="15"/>
-      <c r="K689" s="10"/>
+      <c r="K689" s="16"/>
     </row>
     <row r="690">
       <c r="B690" s="15"/>
-      <c r="K690" s="10"/>
+      <c r="K690" s="16"/>
     </row>
     <row r="691">
       <c r="B691" s="15"/>
-      <c r="K691" s="10"/>
+      <c r="K691" s="16"/>
     </row>
     <row r="692">
       <c r="B692" s="15"/>
-      <c r="K692" s="10"/>
+      <c r="K692" s="16"/>
     </row>
     <row r="693">
       <c r="B693" s="15"/>
-      <c r="K693" s="10"/>
+      <c r="K693" s="16"/>
     </row>
     <row r="694">
       <c r="B694" s="15"/>
-      <c r="K694" s="10"/>
+      <c r="K694" s="16"/>
     </row>
     <row r="695">
       <c r="B695" s="15"/>
-      <c r="K695" s="10"/>
+      <c r="K695" s="16"/>
     </row>
     <row r="696">
       <c r="B696" s="15"/>
-      <c r="K696" s="10"/>
+      <c r="K696" s="16"/>
     </row>
     <row r="697">
       <c r="B697" s="15"/>
-      <c r="K697" s="10"/>
+      <c r="K697" s="16"/>
     </row>
     <row r="698">
       <c r="B698" s="15"/>
-      <c r="K698" s="10"/>
+      <c r="K698" s="16"/>
     </row>
     <row r="699">
       <c r="B699" s="15"/>
-      <c r="K699" s="10"/>
+      <c r="K699" s="16"/>
     </row>
     <row r="700">
       <c r="B700" s="15"/>
-      <c r="K700" s="10"/>
+      <c r="K700" s="16"/>
     </row>
     <row r="701">
       <c r="B701" s="15"/>
-      <c r="K701" s="10"/>
+      <c r="K701" s="16"/>
     </row>
     <row r="702">
       <c r="B702" s="15"/>
-      <c r="K702" s="10"/>
+      <c r="K702" s="16"/>
     </row>
     <row r="703">
       <c r="B703" s="15"/>
-      <c r="K703" s="10"/>
+      <c r="K703" s="16"/>
     </row>
     <row r="704">
       <c r="B704" s="15"/>
-      <c r="K704" s="10"/>
+      <c r="K704" s="16"/>
     </row>
     <row r="705">
       <c r="B705" s="15"/>
-      <c r="K705" s="10"/>
+      <c r="K705" s="16"/>
     </row>
     <row r="706">
       <c r="B706" s="15"/>
-      <c r="K706" s="10"/>
+      <c r="K706" s="16"/>
     </row>
     <row r="707">
       <c r="B707" s="15"/>
-      <c r="K707" s="10"/>
+      <c r="K707" s="16"/>
     </row>
     <row r="708">
       <c r="B708" s="15"/>
-      <c r="K708" s="10"/>
+      <c r="K708" s="16"/>
     </row>
     <row r="709">
       <c r="B709" s="15"/>
-      <c r="K709" s="10"/>
+      <c r="K709" s="16"/>
     </row>
     <row r="710">
       <c r="B710" s="15"/>
-      <c r="K710" s="10"/>
+      <c r="K710" s="16"/>
     </row>
     <row r="711">
       <c r="B711" s="15"/>
-      <c r="K711" s="10"/>
+      <c r="K711" s="16"/>
     </row>
     <row r="712">
       <c r="B712" s="15"/>
-      <c r="K712" s="10"/>
+      <c r="K712" s="16"/>
     </row>
     <row r="713">
       <c r="B713" s="15"/>
-      <c r="K713" s="10"/>
+      <c r="K713" s="16"/>
     </row>
     <row r="714">
       <c r="B714" s="15"/>
-      <c r="K714" s="10"/>
+      <c r="K714" s="16"/>
     </row>
     <row r="715">
       <c r="B715" s="15"/>
-      <c r="K715" s="10"/>
+      <c r="K715" s="16"/>
     </row>
     <row r="716">
       <c r="B716" s="15"/>
-      <c r="K716" s="10"/>
+      <c r="K716" s="16"/>
     </row>
     <row r="717">
       <c r="B717" s="15"/>
-      <c r="K717" s="10"/>
+      <c r="K717" s="16"/>
     </row>
     <row r="718">
       <c r="B718" s="15"/>
-      <c r="K718" s="10"/>
+      <c r="K718" s="16"/>
     </row>
     <row r="719">
       <c r="B719" s="15"/>
-      <c r="K719" s="10"/>
+      <c r="K719" s="16"/>
     </row>
     <row r="720">
       <c r="B720" s="15"/>
-      <c r="K720" s="10"/>
+      <c r="K720" s="16"/>
     </row>
     <row r="721">
       <c r="B721" s="15"/>
-      <c r="K721" s="10"/>
+      <c r="K721" s="16"/>
     </row>
     <row r="722">
       <c r="B722" s="15"/>
-      <c r="K722" s="10"/>
+      <c r="K722" s="16"/>
     </row>
     <row r="723">
       <c r="B723" s="15"/>
-      <c r="K723" s="10"/>
+      <c r="K723" s="16"/>
     </row>
     <row r="724">
       <c r="B724" s="15"/>
-      <c r="K724" s="10"/>
+      <c r="K724" s="16"/>
     </row>
     <row r="725">
       <c r="B725" s="15"/>
-      <c r="K725" s="10"/>
+      <c r="K725" s="16"/>
     </row>
     <row r="726">
       <c r="B726" s="15"/>
-      <c r="K726" s="10"/>
+      <c r="K726" s="16"/>
     </row>
     <row r="727">
       <c r="B727" s="15"/>
-      <c r="K727" s="10"/>
+      <c r="K727" s="16"/>
     </row>
     <row r="728">
       <c r="B728" s="15"/>
-      <c r="K728" s="10"/>
+      <c r="K728" s="16"/>
     </row>
     <row r="729">
       <c r="B729" s="15"/>
-      <c r="K729" s="10"/>
+      <c r="K729" s="16"/>
     </row>
     <row r="730">
       <c r="B730" s="15"/>
-      <c r="K730" s="10"/>
+      <c r="K730" s="16"/>
     </row>
     <row r="731">
       <c r="B731" s="15"/>
-      <c r="K731" s="10"/>
+      <c r="K731" s="16"/>
     </row>
     <row r="732">
       <c r="B732" s="15"/>
-      <c r="K732" s="10"/>
+      <c r="K732" s="16"/>
     </row>
     <row r="733">
       <c r="B733" s="15"/>
-      <c r="K733" s="10"/>
+      <c r="K733" s="16"/>
     </row>
     <row r="734">
       <c r="B734" s="15"/>
-      <c r="K734" s="10"/>
+      <c r="K734" s="16"/>
     </row>
     <row r="735">
       <c r="B735" s="15"/>
-      <c r="K735" s="10"/>
+      <c r="K735" s="16"/>
     </row>
     <row r="736">
       <c r="B736" s="15"/>
-      <c r="K736" s="10"/>
+      <c r="K736" s="16"/>
     </row>
     <row r="737">
       <c r="B737" s="15"/>
-      <c r="K737" s="10"/>
+      <c r="K737" s="16"/>
     </row>
     <row r="738">
       <c r="B738" s="15"/>
-      <c r="K738" s="10"/>
+      <c r="K738" s="16"/>
     </row>
     <row r="739">
       <c r="B739" s="15"/>
-      <c r="K739" s="10"/>
+      <c r="K739" s="16"/>
     </row>
     <row r="740">
       <c r="B740" s="15"/>
-      <c r="K740" s="10"/>
+      <c r="K740" s="16"/>
     </row>
     <row r="741">
       <c r="B741" s="15"/>
-      <c r="K741" s="10"/>
+      <c r="K741" s="16"/>
     </row>
     <row r="742">
       <c r="B742" s="15"/>
-      <c r="K742" s="10"/>
+      <c r="K742" s="16"/>
     </row>
     <row r="743">
       <c r="B743" s="15"/>
-      <c r="K743" s="10"/>
+      <c r="K743" s="16"/>
     </row>
     <row r="744">
       <c r="B744" s="15"/>
-      <c r="K744" s="10"/>
+      <c r="K744" s="16"/>
     </row>
     <row r="745">
       <c r="B745" s="15"/>
-      <c r="K745" s="10"/>
+      <c r="K745" s="16"/>
     </row>
     <row r="746">
       <c r="B746" s="15"/>
-      <c r="K746" s="10"/>
+      <c r="K746" s="16"/>
     </row>
     <row r="747">
       <c r="B747" s="15"/>
-      <c r="K747" s="10"/>
+      <c r="K747" s="16"/>
     </row>
     <row r="748">
       <c r="B748" s="15"/>
-      <c r="K748" s="10"/>
+      <c r="K748" s="16"/>
     </row>
     <row r="749">
       <c r="B749" s="15"/>
-      <c r="K749" s="10"/>
+      <c r="K749" s="16"/>
     </row>
     <row r="750">
       <c r="B750" s="15"/>
-      <c r="K750" s="10"/>
+      <c r="K750" s="16"/>
     </row>
     <row r="751">
       <c r="B751" s="15"/>
-      <c r="K751" s="10"/>
+      <c r="K751" s="16"/>
     </row>
     <row r="752">
       <c r="B752" s="15"/>
-      <c r="K752" s="10"/>
+      <c r="K752" s="16"/>
     </row>
     <row r="753">
       <c r="B753" s="15"/>
-      <c r="K753" s="10"/>
+      <c r="K753" s="16"/>
     </row>
     <row r="754">
       <c r="B754" s="15"/>
-      <c r="K754" s="10"/>
+      <c r="K754" s="16"/>
     </row>
     <row r="755">
       <c r="B755" s="15"/>
-      <c r="K755" s="10"/>
+      <c r="K755" s="16"/>
     </row>
     <row r="756">
       <c r="B756" s="15"/>
-      <c r="K756" s="10"/>
+      <c r="K756" s="16"/>
     </row>
     <row r="757">
       <c r="B757" s="15"/>
-      <c r="K757" s="10"/>
+      <c r="K757" s="16"/>
     </row>
     <row r="758">
       <c r="B758" s="15"/>
-      <c r="K758" s="10"/>
+      <c r="K758" s="16"/>
     </row>
     <row r="759">
       <c r="B759" s="15"/>
-      <c r="K759" s="10"/>
+      <c r="K759" s="16"/>
     </row>
     <row r="760">
       <c r="B760" s="15"/>
-      <c r="K760" s="10"/>
+      <c r="K760" s="16"/>
     </row>
     <row r="761">
       <c r="B761" s="15"/>
-      <c r="K761" s="10"/>
+      <c r="K761" s="16"/>
     </row>
     <row r="762">
       <c r="B762" s="15"/>
-      <c r="K762" s="10"/>
+      <c r="K762" s="16"/>
     </row>
     <row r="763">
       <c r="B763" s="15"/>
-      <c r="K763" s="10"/>
+      <c r="K763" s="16"/>
     </row>
     <row r="764">
       <c r="B764" s="15"/>
-      <c r="K764" s="10"/>
+      <c r="K764" s="16"/>
     </row>
     <row r="765">
       <c r="B765" s="15"/>
-      <c r="K765" s="10"/>
+      <c r="K765" s="16"/>
     </row>
     <row r="766">
       <c r="B766" s="15"/>
-      <c r="K766" s="10"/>
+      <c r="K766" s="16"/>
     </row>
     <row r="767">
       <c r="B767" s="15"/>
-      <c r="K767" s="10"/>
+      <c r="K767" s="16"/>
     </row>
     <row r="768">
       <c r="B768" s="15"/>
-      <c r="K768" s="10"/>
+      <c r="K768" s="16"/>
     </row>
     <row r="769">
       <c r="B769" s="15"/>
-      <c r="K769" s="10"/>
+      <c r="K769" s="16"/>
     </row>
     <row r="770">
       <c r="B770" s="15"/>
-      <c r="K770" s="10"/>
+      <c r="K770" s="16"/>
     </row>
     <row r="771">
       <c r="B771" s="15"/>
-      <c r="K771" s="10"/>
+      <c r="K771" s="16"/>
     </row>
     <row r="772">
       <c r="B772" s="15"/>
-      <c r="K772" s="10"/>
+      <c r="K772" s="16"/>
     </row>
     <row r="773">
       <c r="B773" s="15"/>
-      <c r="K773" s="10"/>
+      <c r="K773" s="16"/>
     </row>
     <row r="774">
       <c r="B774" s="15"/>
-      <c r="K774" s="10"/>
+      <c r="K774" s="16"/>
     </row>
     <row r="775">
       <c r="B775" s="15"/>
-      <c r="K775" s="10"/>
+      <c r="K775" s="16"/>
     </row>
     <row r="776">
       <c r="B776" s="15"/>
-      <c r="K776" s="10"/>
+      <c r="K776" s="16"/>
     </row>
     <row r="777">
       <c r="B777" s="15"/>
-      <c r="K777" s="10"/>
+      <c r="K777" s="16"/>
     </row>
     <row r="778">
       <c r="B778" s="15"/>
-      <c r="K778" s="10"/>
+      <c r="K778" s="16"/>
     </row>
     <row r="779">
       <c r="B779" s="15"/>
-      <c r="K779" s="10"/>
+      <c r="K779" s="16"/>
     </row>
     <row r="780">
       <c r="B780" s="15"/>
-      <c r="K780" s="10"/>
+      <c r="K780" s="16"/>
     </row>
     <row r="781">
       <c r="B781" s="15"/>
-      <c r="K781" s="10"/>
+      <c r="K781" s="16"/>
     </row>
     <row r="782">
       <c r="B782" s="15"/>
-      <c r="K782" s="10"/>
+      <c r="K782" s="16"/>
     </row>
     <row r="783">
       <c r="B783" s="15"/>
-      <c r="K783" s="10"/>
+      <c r="K783" s="16"/>
     </row>
     <row r="784">
       <c r="B784" s="15"/>
-      <c r="K784" s="10"/>
+      <c r="K784" s="16"/>
     </row>
     <row r="785">
       <c r="B785" s="15"/>
-      <c r="K785" s="10"/>
+      <c r="K785" s="16"/>
     </row>
     <row r="786">
       <c r="B786" s="15"/>
-      <c r="K786" s="10"/>
+      <c r="K786" s="16"/>
     </row>
     <row r="787">
       <c r="B787" s="15"/>
-      <c r="K787" s="10"/>
+      <c r="K787" s="16"/>
     </row>
     <row r="788">
       <c r="B788" s="15"/>
-      <c r="K788" s="10"/>
+      <c r="K788" s="16"/>
     </row>
     <row r="789">
       <c r="B789" s="15"/>
-      <c r="K789" s="10"/>
+      <c r="K789" s="16"/>
     </row>
     <row r="790">
       <c r="B790" s="15"/>
-      <c r="K790" s="10"/>
+      <c r="K790" s="16"/>
     </row>
     <row r="791">
       <c r="B791" s="15"/>
-      <c r="K791" s="10"/>
+      <c r="K791" s="16"/>
     </row>
     <row r="792">
       <c r="B792" s="15"/>
-      <c r="K792" s="10"/>
+      <c r="K792" s="16"/>
     </row>
     <row r="793">
       <c r="B793" s="15"/>
-      <c r="K793" s="10"/>
+      <c r="K793" s="16"/>
     </row>
     <row r="794">
       <c r="B794" s="15"/>
-      <c r="K794" s="10"/>
+      <c r="K794" s="16"/>
     </row>
     <row r="795">
       <c r="B795" s="15"/>
-      <c r="K795" s="10"/>
+      <c r="K795" s="16"/>
     </row>
     <row r="796">
       <c r="B796" s="15"/>
-      <c r="K796" s="10"/>
+      <c r="K796" s="16"/>
     </row>
     <row r="797">
       <c r="B797" s="15"/>
-      <c r="K797" s="10"/>
+      <c r="K797" s="16"/>
     </row>
     <row r="798">
       <c r="B798" s="15"/>
-      <c r="K798" s="10"/>
+      <c r="K798" s="16"/>
     </row>
     <row r="799">
       <c r="B799" s="15"/>
-      <c r="K799" s="10"/>
+      <c r="K799" s="16"/>
     </row>
     <row r="800">
       <c r="B800" s="15"/>
-      <c r="K800" s="10"/>
+      <c r="K800" s="16"/>
     </row>
     <row r="801">
       <c r="B801" s="15"/>
-      <c r="K801" s="10"/>
+      <c r="K801" s="16"/>
     </row>
     <row r="802">
       <c r="B802" s="15"/>
-      <c r="K802" s="10"/>
+      <c r="K802" s="16"/>
     </row>
     <row r="803">
       <c r="B803" s="15"/>
-      <c r="K803" s="10"/>
+      <c r="K803" s="16"/>
     </row>
     <row r="804">
       <c r="B804" s="15"/>
-      <c r="K804" s="10"/>
+      <c r="K804" s="16"/>
     </row>
     <row r="805">
       <c r="B805" s="15"/>
-      <c r="K805" s="10"/>
+      <c r="K805" s="16"/>
     </row>
     <row r="806">
       <c r="B806" s="15"/>
-      <c r="K806" s="10"/>
+      <c r="K806" s="16"/>
     </row>
     <row r="807">
       <c r="B807" s="15"/>
-      <c r="K807" s="10"/>
+      <c r="K807" s="16"/>
     </row>
     <row r="808">
       <c r="B808" s="15"/>
-      <c r="K808" s="10"/>
+      <c r="K808" s="16"/>
     </row>
     <row r="809">
       <c r="B809" s="15"/>
-      <c r="K809" s="10"/>
+      <c r="K809" s="16"/>
     </row>
     <row r="810">
       <c r="B810" s="15"/>
-      <c r="K810" s="10"/>
+      <c r="K810" s="16"/>
     </row>
     <row r="811">
       <c r="B811" s="15"/>
-      <c r="K811" s="10"/>
+      <c r="K811" s="16"/>
     </row>
     <row r="812">
       <c r="B812" s="15"/>
-      <c r="K812" s="10"/>
+      <c r="K812" s="16"/>
     </row>
     <row r="813">
       <c r="B813" s="15"/>
-      <c r="K813" s="10"/>
+      <c r="K813" s="16"/>
     </row>
     <row r="814">
       <c r="B814" s="15"/>
-      <c r="K814" s="10"/>
+      <c r="K814" s="16"/>
     </row>
     <row r="815">
       <c r="B815" s="15"/>
-      <c r="K815" s="10"/>
+      <c r="K815" s="16"/>
     </row>
     <row r="816">
       <c r="B816" s="15"/>
-      <c r="K816" s="10"/>
+      <c r="K816" s="16"/>
     </row>
     <row r="817">
       <c r="B817" s="15"/>
-      <c r="K817" s="10"/>
+      <c r="K817" s="16"/>
     </row>
     <row r="818">
       <c r="B818" s="15"/>
-      <c r="K818" s="10"/>
+      <c r="K818" s="16"/>
     </row>
     <row r="819">
       <c r="B819" s="15"/>
-      <c r="K819" s="10"/>
+      <c r="K819" s="16"/>
     </row>
     <row r="820">
       <c r="B820" s="15"/>
-      <c r="K820" s="10"/>
+      <c r="K820" s="16"/>
     </row>
     <row r="821">
       <c r="B821" s="15"/>
-      <c r="K821" s="10"/>
+      <c r="K821" s="16"/>
     </row>
     <row r="822">
       <c r="B822" s="15"/>
-      <c r="K822" s="10"/>
+      <c r="K822" s="16"/>
     </row>
     <row r="823">
       <c r="B823" s="15"/>
-      <c r="K823" s="10"/>
+      <c r="K823" s="16"/>
     </row>
     <row r="824">
       <c r="B824" s="15"/>
-      <c r="K824" s="10"/>
+      <c r="K824" s="16"/>
     </row>
     <row r="825">
       <c r="B825" s="15"/>
-      <c r="K825" s="10"/>
+      <c r="K825" s="16"/>
     </row>
     <row r="826">
       <c r="B826" s="15"/>
-      <c r="K826" s="10"/>
+      <c r="K826" s="16"/>
     </row>
     <row r="827">
       <c r="B827" s="15"/>
-      <c r="K827" s="10"/>
+      <c r="K827" s="16"/>
     </row>
     <row r="828">
       <c r="B828" s="15"/>
-      <c r="K828" s="10"/>
+      <c r="K828" s="16"/>
     </row>
     <row r="829">
       <c r="B829" s="15"/>
-      <c r="K829" s="10"/>
+      <c r="K829" s="16"/>
     </row>
     <row r="830">
       <c r="B830" s="15"/>
-      <c r="K830" s="10"/>
+      <c r="K830" s="16"/>
     </row>
     <row r="831">
       <c r="B831" s="15"/>
-      <c r="K831" s="10"/>
+      <c r="K831" s="16"/>
     </row>
     <row r="832">
       <c r="B832" s="15"/>
-      <c r="K832" s="10"/>
+      <c r="K832" s="16"/>
     </row>
     <row r="833">
       <c r="B833" s="15"/>
-      <c r="K833" s="10"/>
+      <c r="K833" s="16"/>
     </row>
     <row r="834">
       <c r="B834" s="15"/>
-      <c r="K834" s="10"/>
+      <c r="K834" s="16"/>
     </row>
     <row r="835">
       <c r="B835" s="15"/>
-      <c r="K835" s="10"/>
+      <c r="K835" s="16"/>
     </row>
     <row r="836">
       <c r="B836" s="15"/>
-      <c r="K836" s="10"/>
+      <c r="K836" s="16"/>
     </row>
     <row r="837">
       <c r="B837" s="15"/>
-      <c r="K837" s="10"/>
+      <c r="K837" s="16"/>
     </row>
     <row r="838">
       <c r="B838" s="15"/>
-      <c r="K838" s="10"/>
+      <c r="K838" s="16"/>
     </row>
     <row r="839">
       <c r="B839" s="15"/>
-      <c r="K839" s="10"/>
+      <c r="K839" s="16"/>
     </row>
     <row r="840">
       <c r="B840" s="15"/>
-      <c r="K840" s="10"/>
+      <c r="K840" s="16"/>
     </row>
     <row r="841">
       <c r="B841" s="15"/>
-      <c r="K841" s="10"/>
+      <c r="K841" s="16"/>
     </row>
     <row r="842">
       <c r="B842" s="15"/>
-      <c r="K842" s="10"/>
+      <c r="K842" s="16"/>
     </row>
     <row r="843">
       <c r="B843" s="15"/>
-      <c r="K843" s="10"/>
+      <c r="K843" s="16"/>
     </row>
     <row r="844">
       <c r="B844" s="15"/>
-      <c r="K844" s="10"/>
+      <c r="K844" s="16"/>
     </row>
     <row r="845">
       <c r="B845" s="15"/>
-      <c r="K845" s="10"/>
+      <c r="K845" s="16"/>
     </row>
     <row r="846">
       <c r="B846" s="15"/>
-      <c r="K846" s="10"/>
+      <c r="K846" s="16"/>
     </row>
     <row r="847">
       <c r="B847" s="15"/>
-      <c r="K847" s="10"/>
+      <c r="K847" s="16"/>
     </row>
     <row r="848">
       <c r="B848" s="15"/>
-      <c r="K848" s="10"/>
+      <c r="K848" s="16"/>
     </row>
     <row r="849">
       <c r="B849" s="15"/>
-      <c r="K849" s="10"/>
+      <c r="K849" s="16"/>
     </row>
     <row r="850">
       <c r="B850" s="15"/>
-      <c r="K850" s="10"/>
+      <c r="K850" s="16"/>
     </row>
     <row r="851">
       <c r="B851" s="15"/>
-      <c r="K851" s="10"/>
+      <c r="K851" s="16"/>
     </row>
     <row r="852">
       <c r="B852" s="15"/>
-      <c r="K852" s="10"/>
+      <c r="K852" s="16"/>
     </row>
     <row r="853">
       <c r="B853" s="15"/>
-      <c r="K853" s="10"/>
+      <c r="K853" s="16"/>
     </row>
     <row r="854">
       <c r="B854" s="15"/>
-      <c r="K854" s="10"/>
+      <c r="K854" s="16"/>
     </row>
     <row r="855">
       <c r="B855" s="15"/>
-      <c r="K855" s="10"/>
+      <c r="K855" s="16"/>
     </row>
     <row r="856">
       <c r="B856" s="15"/>
-      <c r="K856" s="10"/>
+      <c r="K856" s="16"/>
     </row>
     <row r="857">
       <c r="B857" s="15"/>
-      <c r="K857" s="10"/>
+      <c r="K857" s="16"/>
     </row>
     <row r="858">
       <c r="B858" s="15"/>
-      <c r="K858" s="10"/>
+      <c r="K858" s="16"/>
     </row>
     <row r="859">
       <c r="B859" s="15"/>
-      <c r="K859" s="10"/>
+      <c r="K859" s="16"/>
     </row>
     <row r="860">
       <c r="B860" s="15"/>
-      <c r="K860" s="10"/>
+      <c r="K860" s="16"/>
     </row>
     <row r="861">
       <c r="B861" s="15"/>
-      <c r="K861" s="10"/>
+      <c r="K861" s="16"/>
     </row>
     <row r="862">
       <c r="B862" s="15"/>
-      <c r="K862" s="10"/>
+      <c r="K862" s="16"/>
     </row>
     <row r="863">
       <c r="B863" s="15"/>
-      <c r="K863" s="10"/>
+      <c r="K863" s="16"/>
     </row>
     <row r="864">
       <c r="B864" s="15"/>
-      <c r="K864" s="10"/>
+      <c r="K864" s="16"/>
     </row>
     <row r="865">
       <c r="B865" s="15"/>
-      <c r="K865" s="10"/>
+      <c r="K865" s="16"/>
     </row>
     <row r="866">
       <c r="B866" s="15"/>
-      <c r="K866" s="10"/>
+      <c r="K866" s="16"/>
     </row>
     <row r="867">
       <c r="B867" s="15"/>
-      <c r="K867" s="10"/>
+      <c r="K867" s="16"/>
     </row>
     <row r="868">
       <c r="B868" s="15"/>
-      <c r="K868" s="10"/>
+      <c r="K868" s="16"/>
     </row>
     <row r="869">
       <c r="B869" s="15"/>
-      <c r="K869" s="10"/>
+      <c r="K869" s="16"/>
     </row>
     <row r="870">
       <c r="B870" s="15"/>
-      <c r="K870" s="10"/>
+      <c r="K870" s="16"/>
     </row>
     <row r="871">
       <c r="B871" s="15"/>
-      <c r="K871" s="10"/>
+      <c r="K871" s="16"/>
     </row>
     <row r="872">
       <c r="B872" s="15"/>
-      <c r="K872" s="10"/>
+      <c r="K872" s="16"/>
     </row>
     <row r="873">
       <c r="B873" s="15"/>
-      <c r="K873" s="10"/>
+      <c r="K873" s="16"/>
     </row>
     <row r="874">
       <c r="B874" s="15"/>
-      <c r="K874" s="10"/>
+      <c r="K874" s="16"/>
     </row>
     <row r="875">
       <c r="B875" s="15"/>
-      <c r="K875" s="10"/>
+      <c r="K875" s="16"/>
     </row>
     <row r="876">
       <c r="B876" s="15"/>
-      <c r="K876" s="10"/>
+      <c r="K876" s="16"/>
     </row>
     <row r="877">
       <c r="B877" s="15"/>
-      <c r="K877" s="10"/>
+      <c r="K877" s="16"/>
     </row>
     <row r="878">
       <c r="B878" s="15"/>
-      <c r="K878" s="10"/>
+      <c r="K878" s="16"/>
     </row>
     <row r="879">
       <c r="B879" s="15"/>
-      <c r="K879" s="10"/>
+      <c r="K879" s="16"/>
     </row>
     <row r="880">
       <c r="B880" s="15"/>
-      <c r="K880" s="10"/>
+      <c r="K880" s="16"/>
     </row>
     <row r="881">
       <c r="B881" s="15"/>
-      <c r="K881" s="10"/>
+      <c r="K881" s="16"/>
     </row>
     <row r="882">
       <c r="B882" s="15"/>
-      <c r="K882" s="10"/>
+      <c r="K882" s="16"/>
     </row>
     <row r="883">
       <c r="B883" s="15"/>
-      <c r="K883" s="10"/>
+      <c r="K883" s="16"/>
     </row>
     <row r="884">
       <c r="B884" s="15"/>
-      <c r="K884" s="10"/>
+      <c r="K884" s="16"/>
     </row>
     <row r="885">
       <c r="B885" s="15"/>
-      <c r="K885" s="10"/>
+      <c r="K885" s="16"/>
     </row>
     <row r="886">
       <c r="B886" s="15"/>
-      <c r="K886" s="10"/>
+      <c r="K886" s="16"/>
     </row>
     <row r="887">
       <c r="B887" s="15"/>
-      <c r="K887" s="10"/>
+      <c r="K887" s="16"/>
     </row>
     <row r="888">
       <c r="B888" s="15"/>
-      <c r="K888" s="10"/>
+      <c r="K888" s="16"/>
     </row>
     <row r="889">
       <c r="B889" s="15"/>
-      <c r="K889" s="10"/>
+      <c r="K889" s="16"/>
     </row>
     <row r="890">
       <c r="B890" s="15"/>
-      <c r="K890" s="10"/>
+      <c r="K890" s="16"/>
     </row>
     <row r="891">
       <c r="B891" s="15"/>
-      <c r="K891" s="10"/>
+      <c r="K891" s="16"/>
     </row>
     <row r="892">
       <c r="B892" s="15"/>
-      <c r="K892" s="10"/>
+      <c r="K892" s="16"/>
     </row>
     <row r="893">
       <c r="B893" s="15"/>
-      <c r="K893" s="10"/>
+      <c r="K893" s="16"/>
     </row>
     <row r="894">
       <c r="B894" s="15"/>
-      <c r="K894" s="10"/>
+      <c r="K894" s="16"/>
     </row>
     <row r="895">
       <c r="B895" s="15"/>
-      <c r="K895" s="10"/>
+      <c r="K895" s="16"/>
     </row>
     <row r="896">
       <c r="B896" s="15"/>
-      <c r="K896" s="10"/>
+      <c r="K896" s="16"/>
     </row>
     <row r="897">
       <c r="B897" s="15"/>
-      <c r="K897" s="10"/>
+      <c r="K897" s="16"/>
     </row>
     <row r="898">
       <c r="B898" s="15"/>
-      <c r="K898" s="10"/>
+      <c r="K898" s="16"/>
     </row>
     <row r="899">
       <c r="B899" s="15"/>
-      <c r="K899" s="10"/>
+      <c r="K899" s="16"/>
     </row>
     <row r="900">
       <c r="B900" s="15"/>
-      <c r="K900" s="10"/>
+      <c r="K900" s="16"/>
     </row>
     <row r="901">
       <c r="B901" s="15"/>
-      <c r="K901" s="10"/>
+      <c r="K901" s="16"/>
     </row>
     <row r="902">
       <c r="B902" s="15"/>
-      <c r="K902" s="10"/>
+      <c r="K902" s="16"/>
     </row>
     <row r="903">
       <c r="B903" s="15"/>
-      <c r="K903" s="10"/>
+      <c r="K903" s="16"/>
     </row>
     <row r="904">
       <c r="B904" s="15"/>
-      <c r="K904" s="10"/>
+      <c r="K904" s="16"/>
     </row>
     <row r="905">
       <c r="B905" s="15"/>
-      <c r="K905" s="10"/>
+      <c r="K905" s="16"/>
     </row>
     <row r="906">
       <c r="B906" s="15"/>
-      <c r="K906" s="10"/>
+      <c r="K906" s="16"/>
     </row>
     <row r="907">
       <c r="B907" s="15"/>
-      <c r="K907" s="10"/>
+      <c r="K907" s="16"/>
     </row>
     <row r="908">
       <c r="B908" s="15"/>
-      <c r="K908" s="10"/>
+      <c r="K908" s="16"/>
     </row>
     <row r="909">
       <c r="B909" s="15"/>
-      <c r="K909" s="10"/>
+      <c r="K909" s="16"/>
     </row>
     <row r="910">
       <c r="B910" s="15"/>
-      <c r="K910" s="10"/>
+      <c r="K910" s="16"/>
     </row>
     <row r="911">
       <c r="B911" s="15"/>
-      <c r="K911" s="10"/>
+      <c r="K911" s="16"/>
     </row>
     <row r="912">
       <c r="B912" s="15"/>
-      <c r="K912" s="10"/>
+      <c r="K912" s="16"/>
     </row>
     <row r="913">
       <c r="B913" s="15"/>
-      <c r="K913" s="10"/>
+      <c r="K913" s="16"/>
     </row>
     <row r="914">
       <c r="B914" s="15"/>
-      <c r="K914" s="10"/>
+      <c r="K914" s="16"/>
     </row>
     <row r="915">
       <c r="B915" s="15"/>
-      <c r="K915" s="10"/>
+      <c r="K915" s="16"/>
     </row>
     <row r="916">
       <c r="B916" s="15"/>
-      <c r="K916" s="10"/>
+      <c r="K916" s="16"/>
     </row>
     <row r="917">
       <c r="B917" s="15"/>
-      <c r="K917" s="10"/>
+      <c r="K917" s="16"/>
     </row>
     <row r="918">
       <c r="B918" s="15"/>
-      <c r="K918" s="10"/>
+      <c r="K918" s="16"/>
     </row>
     <row r="919">
       <c r="B919" s="15"/>
-      <c r="K919" s="10"/>
+      <c r="K919" s="16"/>
     </row>
     <row r="920">
       <c r="B920" s="15"/>
-      <c r="K920" s="10"/>
+      <c r="K920" s="16"/>
     </row>
     <row r="921">
       <c r="B921" s="15"/>
-      <c r="K921" s="10"/>
+      <c r="K921" s="16"/>
     </row>
     <row r="922">
       <c r="B922" s="15"/>
-      <c r="K922" s="10"/>
+      <c r="K922" s="16"/>
     </row>
     <row r="923">
       <c r="B923" s="15"/>
-      <c r="K923" s="10"/>
+      <c r="K923" s="16"/>
     </row>
     <row r="924">
       <c r="B924" s="15"/>
-      <c r="K924" s="10"/>
+      <c r="K924" s="16"/>
     </row>
     <row r="925">
       <c r="B925" s="15"/>
-      <c r="K925" s="10"/>
+      <c r="K925" s="16"/>
     </row>
     <row r="926">
       <c r="B926" s="15"/>
-      <c r="K926" s="10"/>
+      <c r="K926" s="16"/>
     </row>
     <row r="927">
       <c r="B927" s="15"/>
-      <c r="K927" s="10"/>
+      <c r="K927" s="16"/>
     </row>
     <row r="928">
       <c r="B928" s="15"/>
-      <c r="K928" s="10"/>
+      <c r="K928" s="16"/>
     </row>
     <row r="929">
       <c r="B929" s="15"/>
-      <c r="K929" s="10"/>
+      <c r="K929" s="16"/>
     </row>
     <row r="930">
       <c r="B930" s="15"/>
-      <c r="K930" s="10"/>
+      <c r="K930" s="16"/>
     </row>
     <row r="931">
       <c r="B931" s="15"/>
-      <c r="K931" s="10"/>
+      <c r="K931" s="16"/>
     </row>
     <row r="932">
       <c r="B932" s="15"/>
-      <c r="K932" s="10"/>
+      <c r="K932" s="16"/>
     </row>
     <row r="933">
       <c r="B933" s="15"/>
-      <c r="K933" s="10"/>
+      <c r="K933" s="16"/>
     </row>
     <row r="934">
       <c r="B934" s="15"/>
-      <c r="K934" s="10"/>
+      <c r="K934" s="16"/>
     </row>
     <row r="935">
       <c r="B935" s="15"/>
-      <c r="K935" s="10"/>
+      <c r="K935" s="16"/>
     </row>
     <row r="936">
       <c r="B936" s="15"/>
-      <c r="K936" s="10"/>
+      <c r="K936" s="16"/>
     </row>
     <row r="937">
       <c r="B937" s="15"/>
-      <c r="K937" s="10"/>
+      <c r="K937" s="16"/>
     </row>
     <row r="938">
       <c r="B938" s="15"/>
-      <c r="K938" s="10"/>
+      <c r="K938" s="16"/>
     </row>
     <row r="939">
       <c r="B939" s="15"/>
-      <c r="K939" s="10"/>
+      <c r="K939" s="16"/>
     </row>
     <row r="940">
       <c r="B940" s="15"/>
-      <c r="K940" s="10"/>
+      <c r="K940" s="16"/>
     </row>
     <row r="941">
       <c r="B941" s="15"/>
-      <c r="K941" s="10"/>
+      <c r="K941" s="16"/>
     </row>
     <row r="942">
       <c r="B942" s="15"/>
-      <c r="K942" s="10"/>
+      <c r="K942" s="16"/>
     </row>
     <row r="943">
       <c r="B943" s="15"/>
-      <c r="K943" s="10"/>
+      <c r="K943" s="16"/>
     </row>
     <row r="944">
       <c r="B944" s="15"/>
-      <c r="K944" s="10"/>
+      <c r="K944" s="16"/>
     </row>
     <row r="945">
       <c r="B945" s="15"/>
-      <c r="K945" s="10"/>
+      <c r="K945" s="16"/>
     </row>
     <row r="946">
       <c r="B946" s="15"/>
-      <c r="K946" s="10"/>
+      <c r="K946" s="16"/>
     </row>
     <row r="947">
       <c r="B947" s="15"/>
-      <c r="K947" s="10"/>
+      <c r="K947" s="16"/>
     </row>
     <row r="948">
       <c r="B948" s="15"/>
-      <c r="K948" s="10"/>
+      <c r="K948" s="16"/>
     </row>
     <row r="949">
       <c r="B949" s="15"/>
-      <c r="K949" s="10"/>
+      <c r="K949" s="16"/>
     </row>
     <row r="950">
       <c r="B950" s="15"/>
-      <c r="K950" s="10"/>
+      <c r="K950" s="16"/>
     </row>
     <row r="951">
       <c r="B951" s="15"/>
-      <c r="K951" s="10"/>
+      <c r="K951" s="16"/>
     </row>
     <row r="952">
       <c r="B952" s="15"/>
-      <c r="K952" s="10"/>
+      <c r="K952" s="16"/>
     </row>
     <row r="953">
       <c r="B953" s="15"/>
-      <c r="K953" s="10"/>
+      <c r="K953" s="16"/>
     </row>
     <row r="954">
       <c r="B954" s="15"/>
-      <c r="K954" s="10"/>
+      <c r="K954" s="16"/>
     </row>
     <row r="955">
       <c r="B955" s="15"/>
-      <c r="K955" s="10"/>
+      <c r="K955" s="16"/>
     </row>
     <row r="956">
       <c r="B956" s="15"/>
-      <c r="K956" s="10"/>
+      <c r="K956" s="16"/>
     </row>
     <row r="957">
       <c r="B957" s="15"/>
-      <c r="K957" s="10"/>
+      <c r="K957" s="16"/>
     </row>
     <row r="958">
       <c r="B958" s="15"/>
-      <c r="K958" s="10"/>
+      <c r="K958" s="16"/>
     </row>
     <row r="959">
       <c r="B959" s="15"/>
-      <c r="K959" s="10"/>
+      <c r="K959" s="16"/>
     </row>
     <row r="960">
       <c r="B960" s="15"/>
-      <c r="K960" s="10"/>
+      <c r="K960" s="16"/>
     </row>
     <row r="961">
       <c r="B961" s="15"/>
-      <c r="K961" s="10"/>
+      <c r="K961" s="16"/>
     </row>
     <row r="962">
       <c r="B962" s="15"/>
-      <c r="K962" s="10"/>
+      <c r="K962" s="16"/>
     </row>
     <row r="963">
       <c r="B963" s="15"/>
-      <c r="K963" s="10"/>
+      <c r="K963" s="16"/>
     </row>
     <row r="964">
       <c r="B964" s="15"/>
-      <c r="K964" s="10"/>
+      <c r="K964" s="16"/>
     </row>
     <row r="965">
       <c r="B965" s="15"/>
-      <c r="K965" s="10"/>
+      <c r="K965" s="16"/>
     </row>
     <row r="966">
       <c r="B966" s="15"/>
-      <c r="K966" s="10"/>
+      <c r="K966" s="16"/>
     </row>
     <row r="967">
       <c r="B967" s="15"/>
-      <c r="K967" s="10"/>
+      <c r="K967" s="16"/>
     </row>
     <row r="968">
       <c r="B968" s="15"/>
-      <c r="K968" s="10"/>
+      <c r="K968" s="16"/>
     </row>
     <row r="969">
       <c r="B969" s="15"/>
-      <c r="K969" s="10"/>
+      <c r="K969" s="16"/>
     </row>
     <row r="970">
       <c r="B970" s="15"/>
-      <c r="K970" s="10"/>
+      <c r="K970" s="16"/>
     </row>
     <row r="971">
       <c r="B971" s="15"/>
-      <c r="K971" s="10"/>
+      <c r="K971" s="16"/>
     </row>
     <row r="972">
       <c r="B972" s="15"/>
-      <c r="K972" s="10"/>
+      <c r="K972" s="16"/>
     </row>
     <row r="973">
       <c r="B973" s="15"/>
-      <c r="K973" s="10"/>
+      <c r="K973" s="16"/>
     </row>
     <row r="974">
       <c r="B974" s="15"/>
-      <c r="K974" s="10"/>
+      <c r="K974" s="16"/>
     </row>
     <row r="975">
       <c r="B975" s="15"/>
-      <c r="K975" s="10"/>
+      <c r="K975" s="16"/>
     </row>
     <row r="976">
       <c r="B976" s="15"/>
-      <c r="K976" s="10"/>
+      <c r="K976" s="16"/>
     </row>
     <row r="977">
       <c r="B977" s="15"/>
-      <c r="K977" s="10"/>
+      <c r="K977" s="16"/>
     </row>
     <row r="978">
       <c r="B978" s="15"/>
-      <c r="K978" s="10"/>
+      <c r="K978" s="16"/>
     </row>
     <row r="979">
       <c r="B979" s="15"/>
-      <c r="K979" s="10"/>
+      <c r="K979" s="16"/>
     </row>
     <row r="980">
       <c r="B980" s="15"/>
-      <c r="K980" s="10"/>
+      <c r="K980" s="16"/>
     </row>
     <row r="981">
       <c r="B981" s="15"/>
-      <c r="K981" s="10"/>
+      <c r="K981" s="16"/>
     </row>
     <row r="982">
       <c r="B982" s="15"/>
-      <c r="K982" s="10"/>
+      <c r="K982" s="16"/>
     </row>
     <row r="983">
       <c r="B983" s="15"/>
-      <c r="K983" s="10"/>
+      <c r="K983" s="16"/>
     </row>
     <row r="984">
       <c r="B984" s="15"/>
-      <c r="K984" s="10"/>
+      <c r="K984" s="16"/>
     </row>
     <row r="985">
       <c r="B985" s="15"/>
-      <c r="K985" s="10"/>
+      <c r="K985" s="16"/>
     </row>
     <row r="986">
       <c r="B986" s="15"/>
-      <c r="K986" s="10"/>
+      <c r="K986" s="16"/>
     </row>
     <row r="987">
       <c r="B987" s="15"/>
-      <c r="K987" s="10"/>
+      <c r="K987" s="16"/>
     </row>
     <row r="988">
       <c r="B988" s="15"/>
-      <c r="K988" s="10"/>
+      <c r="K988" s="16"/>
     </row>
     <row r="989">
       <c r="B989" s="15"/>
-      <c r="K989" s="10"/>
+      <c r="K989" s="16"/>
     </row>
     <row r="990">
       <c r="B990" s="15"/>
-      <c r="K990" s="10"/>
+      <c r="K990" s="16"/>
     </row>
     <row r="991">
       <c r="B991" s="15"/>
-      <c r="K991" s="10"/>
+      <c r="K991" s="16"/>
     </row>
     <row r="992">
       <c r="B992" s="15"/>
-      <c r="K992" s="10"/>
+      <c r="K992" s="16"/>
     </row>
     <row r="993">
       <c r="B993" s="15"/>
-      <c r="K993" s="10"/>
+      <c r="K993" s="16"/>
     </row>
     <row r="994">
       <c r="B994" s="15"/>
-      <c r="K994" s="10"/>
+      <c r="K994" s="16"/>
     </row>
     <row r="995">
       <c r="B995" s="15"/>
-      <c r="K995" s="10"/>
+      <c r="K995" s="16"/>
     </row>
     <row r="996">
       <c r="B996" s="15"/>
-      <c r="K996" s="10"/>
+      <c r="K996" s="16"/>
     </row>
     <row r="997">
       <c r="B997" s="15"/>
-      <c r="K997" s="10"/>
+      <c r="K997" s="16"/>
     </row>
     <row r="998">
       <c r="B998" s="15"/>
-      <c r="K998" s="10"/>
+      <c r="K998" s="16"/>
     </row>
     <row r="999">
       <c r="B999" s="15"/>
-      <c r="K999" s="10"/>
+      <c r="K999" s="16"/>
     </row>
     <row r="1000">
       <c r="B1000" s="15"/>
-      <c r="K1000" s="10"/>
+      <c r="K1000" s="16"/>
     </row>
     <row r="1001">
       <c r="B1001" s="15"/>
-      <c r="K1001" s="10"/>
+      <c r="K1001" s="16"/>
     </row>
     <row r="1002">
       <c r="B1002" s="15"/>
-      <c r="K1002" s="10"/>
+      <c r="K1002" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -55442,16 +55445,16 @@
     </row>
     <row r="10">
       <c r="A10" s="26">
-        <v>44711.0</v>
+        <v>44708.0</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="24">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>67</v>
@@ -55463,25 +55466,23 @@
     </row>
     <row r="11">
       <c r="A11" s="26">
-        <v>44711.0</v>
+        <v>44708.0</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="24">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F11" s="24"/>
       <c r="G11" s="24">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -55495,14 +55496,12 @@
         <v>27</v>
       </c>
       <c r="D12" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="24">
         <v>1.0</v>
       </c>
@@ -55518,13 +55517,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G13" s="24">
         <v>1.0</v>
@@ -55543,10 +55542,12 @@
       <c r="D14" s="24">
         <v>2.0</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="24"/>
+      <c r="E14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="G14" s="24">
         <v>1.0</v>
       </c>
@@ -55559,15 +55560,17 @@
         <v>37</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="24"/>
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" s="24">
         <v>1.0</v>
       </c>
@@ -55580,13 +55583,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24">
@@ -55604,13 +55607,55 @@
         <v>28</v>
       </c>
       <c r="D17" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="26">
+        <v>44711.0</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="26">
+        <v>44711.0</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24">
         <v>1.0</v>
       </c>
     </row>
@@ -55635,13 +55680,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -55669,475 +55714,475 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>142</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>162</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46">

--- a/jumby_baseline/data/JBB_seagrass.xlsx
+++ b/jumby_baseline/data/JBB_seagrass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="177">
   <si>
     <t>date</t>
   </si>
@@ -256,6 +256,9 @@
     <t>donkey dung sea cucumber</t>
   </si>
   <si>
+    <t>cassopea</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
   </si>
   <si>
     <t>Halophila stipulacea</t>
+  </si>
+  <si>
+    <t>Invasive seagrass</t>
   </si>
   <si>
     <t>HAL</t>
@@ -5479,7 +5485,7 @@
       </c>
       <c r="J2" s="30" t="str">
         <f>VLOOKUP(G2,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="3">
@@ -5683,7 +5689,7 @@
       </c>
       <c r="J8" s="30" t="str">
         <f>VLOOKUP(G8,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="9">
@@ -5853,7 +5859,7 @@
       </c>
       <c r="J13" s="30" t="str">
         <f>VLOOKUP(G13,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="14">
@@ -6023,7 +6029,7 @@
       </c>
       <c r="J18" s="30" t="str">
         <f>VLOOKUP(G18,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="19">
@@ -6193,7 +6199,7 @@
       </c>
       <c r="J23" s="30" t="str">
         <f>VLOOKUP(G23,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="24">
@@ -6363,7 +6369,7 @@
       </c>
       <c r="J28" s="30" t="str">
         <f>VLOOKUP(G28,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="29">
@@ -6499,7 +6505,7 @@
       </c>
       <c r="J32" s="30" t="str">
         <f>VLOOKUP(G32,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="33">
@@ -6669,7 +6675,7 @@
       </c>
       <c r="J37" s="30" t="str">
         <f>VLOOKUP(G37,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="38">
@@ -6941,7 +6947,7 @@
       </c>
       <c r="J45" s="30" t="str">
         <f>VLOOKUP(G45,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="46">
@@ -7179,7 +7185,7 @@
       </c>
       <c r="J52" s="30" t="str">
         <f>VLOOKUP(G52,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="53">
@@ -10069,7 +10075,7 @@
       </c>
       <c r="J137" s="30" t="str">
         <f>VLOOKUP(G137,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="138">
@@ -10273,7 +10279,7 @@
       </c>
       <c r="J143" s="30" t="str">
         <f>VLOOKUP(G143,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="144">
@@ -10443,7 +10449,7 @@
       </c>
       <c r="J148" s="30" t="str">
         <f>VLOOKUP(G148,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="149">
@@ -10579,7 +10585,7 @@
       </c>
       <c r="J152" s="30" t="str">
         <f>VLOOKUP(G152,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="153">
@@ -10817,7 +10823,7 @@
       </c>
       <c r="J159" s="30" t="str">
         <f>VLOOKUP(G159,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="160">
@@ -10885,7 +10891,7 @@
       </c>
       <c r="J161" s="30" t="str">
         <f>VLOOKUP(G161,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="162">
@@ -11157,7 +11163,7 @@
       </c>
       <c r="J169" s="30" t="str">
         <f>VLOOKUP(G169,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="170">
@@ -11327,7 +11333,7 @@
       </c>
       <c r="J174" s="30" t="str">
         <f>VLOOKUP(G174,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="175">
@@ -11497,7 +11503,7 @@
       </c>
       <c r="J179" s="30" t="str">
         <f>VLOOKUP(G179,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="180">
@@ -11633,7 +11639,7 @@
       </c>
       <c r="J183" s="30" t="str">
         <f>VLOOKUP(G183,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="184">
@@ -20207,7 +20213,7 @@
       </c>
       <c r="J438" s="30" t="str">
         <f>VLOOKUP(G438,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="439">
@@ -20815,7 +20821,7 @@
       </c>
       <c r="J457" s="30" t="str">
         <f>VLOOKUP(G457,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="458">
@@ -26167,7 +26173,7 @@
       </c>
       <c r="J619" s="30" t="str">
         <f>VLOOKUP(G619,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="620">
@@ -26303,7 +26309,7 @@
       </c>
       <c r="J623" s="30" t="str">
         <f>VLOOKUP(G623,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="624">
@@ -26405,7 +26411,7 @@
       </c>
       <c r="J626" s="30" t="str">
         <f>VLOOKUP(G626,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="627">
@@ -26575,7 +26581,7 @@
       </c>
       <c r="J631" s="30" t="str">
         <f>VLOOKUP(G631,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="632">
@@ -26711,7 +26717,7 @@
       </c>
       <c r="J635" s="30" t="str">
         <f>VLOOKUP(G635,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="636">
@@ -26949,7 +26955,7 @@
       </c>
       <c r="J642" s="30" t="str">
         <f>VLOOKUP(G642,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="643">
@@ -27051,7 +27057,7 @@
       </c>
       <c r="J645" s="30" t="str">
         <f>VLOOKUP(G645,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="646">
@@ -27289,7 +27295,7 @@
       </c>
       <c r="J652" s="30" t="str">
         <f>VLOOKUP(G652,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="653">
@@ -27459,7 +27465,7 @@
       </c>
       <c r="J657" s="30" t="str">
         <f>VLOOKUP(G657,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="658">
@@ -27867,7 +27873,7 @@
       </c>
       <c r="J669" s="30" t="str">
         <f>VLOOKUP(G669,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="670">
@@ -27935,7 +27941,7 @@
       </c>
       <c r="J671" s="30" t="str">
         <f>VLOOKUP(G671,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="672">
@@ -28275,7 +28281,7 @@
       </c>
       <c r="J681" s="30" t="str">
         <f>VLOOKUP(G681,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="682">
@@ -28445,7 +28451,7 @@
       </c>
       <c r="J686" s="30" t="str">
         <f>VLOOKUP(G686,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="687">
@@ -28751,7 +28757,7 @@
       </c>
       <c r="J695" s="30" t="str">
         <f>VLOOKUP(G695,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="696">
@@ -28853,7 +28859,7 @@
       </c>
       <c r="J698" s="30" t="str">
         <f>VLOOKUP(G698,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="699">
@@ -29193,7 +29199,7 @@
       </c>
       <c r="J708" s="30" t="str">
         <f>VLOOKUP(G708,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="709">
@@ -29567,7 +29573,7 @@
       </c>
       <c r="J719" s="30" t="str">
         <f>VLOOKUP(G719,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="720">
@@ -29771,7 +29777,7 @@
       </c>
       <c r="J725" s="30" t="str">
         <f>VLOOKUP(G725,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="726">
@@ -29903,7 +29909,7 @@
       </c>
       <c r="J729" s="30" t="str">
         <f>VLOOKUP(G729,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="730">
@@ -30063,7 +30069,7 @@
       </c>
       <c r="J734" s="30" t="str">
         <f>VLOOKUP(G734,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="735">
@@ -30191,7 +30197,7 @@
       </c>
       <c r="J738" s="30" t="str">
         <f>VLOOKUP(G738,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="739">
@@ -30383,7 +30389,7 @@
       </c>
       <c r="J744" s="30" t="str">
         <f>VLOOKUP(G744,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="745">
@@ -30543,7 +30549,7 @@
       </c>
       <c r="J749" s="30" t="str">
         <f>VLOOKUP(G749,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="750">
@@ -30767,7 +30773,7 @@
       </c>
       <c r="J756" s="30" t="str">
         <f>VLOOKUP(G756,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="757">
@@ -30927,7 +30933,7 @@
       </c>
       <c r="J761" s="30" t="str">
         <f>VLOOKUP(G761,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="762">
@@ -31087,7 +31093,7 @@
       </c>
       <c r="J766" s="30" t="str">
         <f>VLOOKUP(G766,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="767">
@@ -31311,7 +31317,7 @@
       </c>
       <c r="J773" s="30" t="str">
         <f>VLOOKUP(G773,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="774">
@@ -31727,7 +31733,7 @@
       </c>
       <c r="J786" s="30" t="str">
         <f>VLOOKUP(G786,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="787">
@@ -31855,7 +31861,7 @@
       </c>
       <c r="J790" s="30" t="str">
         <f>VLOOKUP(G790,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="791">
@@ -32015,7 +32021,7 @@
       </c>
       <c r="J795" s="30" t="str">
         <f>VLOOKUP(G795,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="796">
@@ -32175,7 +32181,7 @@
       </c>
       <c r="J800" s="30" t="str">
         <f>VLOOKUP(G800,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="801">
@@ -32335,7 +32341,7 @@
       </c>
       <c r="J805" s="30" t="str">
         <f>VLOOKUP(G805,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="806">
@@ -32495,7 +32501,7 @@
       </c>
       <c r="J810" s="30" t="str">
         <f>VLOOKUP(G810,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="811">
@@ -32655,7 +32661,7 @@
       </c>
       <c r="J815" s="30" t="str">
         <f>VLOOKUP(G815,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="816">
@@ -32847,7 +32853,7 @@
       </c>
       <c r="J821" s="30" t="str">
         <f>VLOOKUP(G821,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="822">
@@ -33039,7 +33045,7 @@
       </c>
       <c r="J827" s="30" t="str">
         <f>VLOOKUP(G827,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="828">
@@ -33231,7 +33237,7 @@
       </c>
       <c r="J833" s="30" t="str">
         <f>VLOOKUP(G833,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="834">
@@ -33527,7 +33533,7 @@
       </c>
       <c r="J842" s="30" t="str">
         <f>VLOOKUP(G842,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="843">
@@ -33663,7 +33669,7 @@
       </c>
       <c r="J846" s="30" t="str">
         <f>VLOOKUP(G846,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="847">
@@ -33867,7 +33873,7 @@
       </c>
       <c r="J852" s="30" t="str">
         <f>VLOOKUP(G852,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="853">
@@ -34173,7 +34179,7 @@
       </c>
       <c r="J861" s="30" t="str">
         <f>VLOOKUP(G861,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="862">
@@ -34275,7 +34281,7 @@
       </c>
       <c r="J864" s="30" t="str">
         <f>VLOOKUP(G864,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="865">
@@ -34411,7 +34417,7 @@
       </c>
       <c r="J868" s="30" t="str">
         <f>VLOOKUP(G868,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="869">
@@ -35567,7 +35573,7 @@
       </c>
       <c r="J902" s="30" t="str">
         <f>VLOOKUP(G902,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="903">
@@ -36572,7 +36578,7 @@
       </c>
       <c r="J932" s="30" t="str">
         <f>VLOOKUP(G932,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="933">
@@ -36727,7 +36733,7 @@
       </c>
       <c r="J937" s="30" t="str">
         <f>VLOOKUP(G937,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="938">
@@ -36944,7 +36950,7 @@
       </c>
       <c r="J944" s="30" t="str">
         <f>VLOOKUP(G944,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="945">
@@ -37130,7 +37136,7 @@
       </c>
       <c r="J950" s="30" t="str">
         <f>VLOOKUP(G950,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="951">
@@ -37471,7 +37477,7 @@
       </c>
       <c r="J961" s="30" t="str">
         <f>VLOOKUP(G961,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="962">
@@ -37595,7 +37601,7 @@
       </c>
       <c r="J965" s="30" t="str">
         <f>VLOOKUP(G965,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="966">
@@ -37843,7 +37849,7 @@
       </c>
       <c r="J973" s="30" t="str">
         <f>VLOOKUP(G973,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="974">
@@ -38091,7 +38097,7 @@
       </c>
       <c r="J981" s="30" t="str">
         <f>VLOOKUP(G981,lookups!$2:$112,3,FALSE)</f>
-        <v>Seagrass</v>
+        <v>Invasive seagrass</v>
       </c>
     </row>
     <row r="982">
@@ -55580,16 +55586,16 @@
         <v>44711.0</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>76</v>
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24">
@@ -55604,13 +55610,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="24">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24">
@@ -55631,7 +55637,7 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24">
@@ -55649,14 +55655,56 @@
         <v>28</v>
       </c>
       <c r="D19" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="26">
+        <v>44711.0</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="26">
+        <v>44711.0</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24">
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -55680,13 +55728,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -55714,475 +55762,475 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B30" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>144</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B39" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>164</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46">

--- a/jumby_baseline/data/JBB_seagrass.xlsx
+++ b/jumby_baseline/data/JBB_seagrass.xlsx
@@ -448,7 +448,7 @@
     <t>Sponge</t>
   </si>
   <si>
-    <t>Sponges, tunicates &amp; soft coral</t>
+    <t>Sponges, tunicates &amp; corals</t>
   </si>
   <si>
     <t>GOR</t>
@@ -469,9 +469,6 @@
     <t>Porites porites</t>
   </si>
   <si>
-    <t>Stony coral</t>
-  </si>
-  <si>
     <t>PFUR</t>
   </si>
   <si>
@@ -481,7 +478,7 @@
     <t>PAST</t>
   </si>
   <si>
-    <t>Porited astreoides</t>
+    <t>Porites astreoides</t>
   </si>
   <si>
     <t>SRAD</t>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>Cladocora arbuscula</t>
+  </si>
+  <si>
+    <t>Stony coral</t>
   </si>
   <si>
     <t>CYAN</t>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="J233" s="30" t="str">
         <f>VLOOKUP(G233,lookups!$2:$112,3,FALSE)</f>
-        <v>Sponges, tunicates &amp; soft coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="234">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="J283" s="30" t="str">
         <f>VLOOKUP(G283,lookups!$2:$112,3,FALSE)</f>
-        <v>Stony coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="284">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="J989" s="30" t="str">
         <f>VLOOKUP(G989,lookups!$2:$112,3,FALSE)</f>
-        <v>Sponges, tunicates &amp; soft coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="990">
@@ -40019,7 +40019,7 @@
       </c>
       <c r="J1043" s="30" t="str">
         <f>VLOOKUP(G1043,lookups!$2:$112,3,FALSE)</f>
-        <v>Stony coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1044">
@@ -46653,7 +46653,7 @@
       </c>
       <c r="J1257" s="30" t="str">
         <f>VLOOKUP(G1257,lookups!$2:$112,3,FALSE)</f>
-        <v>Sponges, tunicates &amp; soft coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1258">
@@ -48017,7 +48017,7 @@
       </c>
       <c r="J1301" s="30" t="str">
         <f>VLOOKUP(G1301,lookups!$2:$112,3,FALSE)</f>
-        <v>Stony coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1302">
@@ -48141,7 +48141,7 @@
       </c>
       <c r="J1305" s="30" t="str">
         <f>VLOOKUP(G1305,lookups!$2:$112,3,FALSE)</f>
-        <v>Stony coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1306">
@@ -48296,7 +48296,7 @@
       </c>
       <c r="J1310" s="30" t="str">
         <f>VLOOKUP(G1310,lookups!$2:$112,3,FALSE)</f>
-        <v>Sponges, tunicates &amp; soft coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1311">
@@ -49133,7 +49133,7 @@
       </c>
       <c r="J1337" s="30" t="str">
         <f>VLOOKUP(G1337,lookups!$2:$112,3,FALSE)</f>
-        <v>Sponges, tunicates &amp; soft coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1338">
@@ -49815,7 +49815,7 @@
       </c>
       <c r="J1359" s="30" t="str">
         <f>VLOOKUP(G1359,lookups!$2:$112,3,FALSE)</f>
-        <v>Stony coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1360">
@@ -50156,7 +50156,7 @@
       </c>
       <c r="J1370" s="30" t="str">
         <f>VLOOKUP(G1370,lookups!$2:$112,3,FALSE)</f>
-        <v>Sponges, tunicates &amp; soft coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1371">
@@ -50497,7 +50497,7 @@
       </c>
       <c r="J1381" s="30" t="str">
         <f>VLOOKUP(G1381,lookups!$2:$112,3,FALSE)</f>
-        <v>Stony coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1382">
@@ -50621,7 +50621,7 @@
       </c>
       <c r="J1385" s="30" t="str">
         <f>VLOOKUP(G1385,lookups!$2:$112,3,FALSE)</f>
-        <v>Stony coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1386">
@@ -50807,7 +50807,7 @@
       </c>
       <c r="J1391" s="30" t="str">
         <f>VLOOKUP(G1391,lookups!$2:$112,3,FALSE)</f>
-        <v>Sponges, tunicates &amp; soft coral</v>
+        <v>Sponges, tunicates &amp; corals</v>
       </c>
     </row>
     <row r="1392">
@@ -56098,128 +56098,128 @@
         <v>150</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>153</v>
-      </c>
       <c r="C33" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>155</v>
-      </c>
       <c r="C34" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>157</v>
-      </c>
       <c r="C35" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>159</v>
-      </c>
       <c r="C36" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>161</v>
-      </c>
       <c r="C37" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="C38" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>166</v>
-      </c>
       <c r="C39" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="C40" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="33" t="s">
-        <v>170</v>
-      </c>
       <c r="C41" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="C42" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="C43" s="33" t="s">
         <v>174</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="44">
